--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="7020" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="482">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -942,268 +942,529 @@
     <t>tste_10_9</t>
   </si>
   <si>
-    <t>tste_7_0*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_1*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_2*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_3*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_4*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_5*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_6*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_7_0*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_1*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_2*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_3*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_4*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_5*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_6*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_7_0*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_1*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_2*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_3*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_4*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_5*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_6*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_7_0*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_1*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_2*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_3*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_4*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_5*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_6*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_7_0*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_1*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_2*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_3*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_4*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_5*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_6*real_openness</t>
-  </si>
-  <si>
-    <t>tste_7_0*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_1*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_2*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_3*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_4*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_5*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_6*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_7_0*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_1*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_2*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_3*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_4*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_5*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_6*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_7_0*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_7_1*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_7_2*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_7_3*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_7_4*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_7_5*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_7_6*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_4_0*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_4_1*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_4_2*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_4_3*real_extraversion</t>
-  </si>
-  <si>
-    <t>tste_4_0*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_4_1*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_4_2*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_4_3*real_agreeableness</t>
-  </si>
-  <si>
-    <t>tste_4_0*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_4_1*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_4_2*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_4_3*real_conscientiousness</t>
-  </si>
-  <si>
-    <t>tste_4_0*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_4_1*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_4_2*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_4_3*real_emotionstability</t>
-  </si>
-  <si>
-    <t>tste_4_0*real_openness</t>
-  </si>
-  <si>
-    <t>tste_4_1*real_openness</t>
-  </si>
-  <si>
-    <t>tste_4_2*real_openness</t>
-  </si>
-  <si>
-    <t>tste_4_3*real_openness</t>
-  </si>
-  <si>
-    <t>tste_4_0*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_4_1*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_4_2*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_4_3*satis_autonomy</t>
-  </si>
-  <si>
-    <t>tste_4_0*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_4_1*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_4_2*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_4_3*satis_relatedness</t>
-  </si>
-  <si>
-    <t>tste_4_0*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_4_1*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_4_2*satis_competence</t>
-  </si>
-  <si>
-    <t>tste_4_3*satis_competence</t>
+    <t>tste_4_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_4_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_4_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_4_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_4_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_4_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_4_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_4_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_8_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_8_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_8_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_8_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_8_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_5_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_5_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_5_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_5_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_5_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_5_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_5_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_5_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_5_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_5_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_5_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_5_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_5_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_5_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_5_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_5_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_5_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_5_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_5_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_5_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_5_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_5_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_5_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_5_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_5_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_3_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_3_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_3_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_3_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_3_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_3_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_3_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_3_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_3_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_3_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_3_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_3_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_3_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_3_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_3_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_6_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_6_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_6_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_6_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_6_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_6_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_6_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_6_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_6_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_6_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_6_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_6_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_6_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_6_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_6_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_6_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_6_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_6_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_6_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_6_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_6_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_6_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_6_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_6_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_6_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_6_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_6_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_6_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_6_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_6_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_7_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_7_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_7_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_7_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_7_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_2_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_2_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_2_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_2_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_2_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_2_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_2_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_2_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_2_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_2_1*gap_openness</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,10 +1804,13 @@
     <col min="11" max="11" width="32.81640625" customWidth="1"/>
     <col min="12" max="12" width="45.1796875" customWidth="1"/>
     <col min="13" max="15" width="45.08984375" customWidth="1"/>
-    <col min="16" max="17" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.453125" customWidth="1"/>
+    <col min="18" max="21" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1575,13 +1839,28 @@
         <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1615,8 +1894,23 @@
       <c r="Q2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1944,23 @@
       <c r="Q3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1677,13 +1986,28 @@
         <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1709,13 +2033,28 @@
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1744,13 +2083,28 @@
         <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1779,13 +2133,28 @@
         <v>9</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="R7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" t="s">
+        <v>181</v>
+      </c>
+      <c r="U7" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -1814,13 +2183,28 @@
         <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1849,13 +2233,28 @@
         <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1884,13 +2283,28 @@
         <v>64</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1916,13 +2330,28 @@
         <v>65</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1945,13 +2374,28 @@
         <v>66</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1974,13 +2418,28 @@
         <v>238</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2003,13 +2462,28 @@
         <v>239</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>60</v>
       </c>
       <c r="Q14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2032,13 +2506,28 @@
         <v>240</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="Q15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="R15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2061,13 +2550,28 @@
         <v>241</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2090,13 +2594,28 @@
         <v>242</v>
       </c>
       <c r="P17" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="R17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2119,13 +2638,28 @@
         <v>243</v>
       </c>
       <c r="P18" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="Q18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="R18" t="s">
+        <v>258</v>
+      </c>
+      <c r="S18" t="s">
+        <v>262</v>
+      </c>
+      <c r="T18" t="s">
+        <v>267</v>
+      </c>
+      <c r="U18" t="s">
+        <v>273</v>
+      </c>
+      <c r="V18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2148,13 +2682,28 @@
         <v>244</v>
       </c>
       <c r="P19" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="Q19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+      <c r="R19" t="s">
+        <v>259</v>
+      </c>
+      <c r="S19" t="s">
+        <v>263</v>
+      </c>
+      <c r="T19" t="s">
+        <v>268</v>
+      </c>
+      <c r="U19" t="s">
+        <v>274</v>
+      </c>
+      <c r="V19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2177,13 +2726,28 @@
         <v>245</v>
       </c>
       <c r="P20" t="s">
-        <v>310</v>
+        <v>472</v>
       </c>
       <c r="Q20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="R20" t="s">
+        <v>260</v>
+      </c>
+      <c r="S20" t="s">
+        <v>264</v>
+      </c>
+      <c r="T20" t="s">
+        <v>269</v>
+      </c>
+      <c r="U20" t="s">
+        <v>275</v>
+      </c>
+      <c r="V20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2206,13 +2770,28 @@
         <v>246</v>
       </c>
       <c r="P21" t="s">
-        <v>311</v>
+        <v>473</v>
       </c>
       <c r="Q21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="R21" t="s">
+        <v>261</v>
+      </c>
+      <c r="S21" t="s">
+        <v>265</v>
+      </c>
+      <c r="T21" t="s">
+        <v>270</v>
+      </c>
+      <c r="U21" t="s">
+        <v>276</v>
+      </c>
+      <c r="V21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2232,13 +2811,28 @@
         <v>247</v>
       </c>
       <c r="P22" t="s">
-        <v>312</v>
+        <v>474</v>
       </c>
       <c r="Q22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="R22" t="s">
+        <v>307</v>
+      </c>
+      <c r="S22" t="s">
+        <v>266</v>
+      </c>
+      <c r="T22" t="s">
+        <v>271</v>
+      </c>
+      <c r="U22" t="s">
+        <v>277</v>
+      </c>
+      <c r="V22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2258,13 +2852,28 @@
         <v>248</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>475</v>
       </c>
       <c r="Q23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="R23" t="s">
+        <v>308</v>
+      </c>
+      <c r="S23" t="s">
+        <v>367</v>
+      </c>
+      <c r="T23" t="s">
+        <v>272</v>
+      </c>
+      <c r="U23" t="s">
+        <v>278</v>
+      </c>
+      <c r="V23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2284,13 +2893,28 @@
         <v>249</v>
       </c>
       <c r="P24" t="s">
-        <v>314</v>
+        <v>476</v>
       </c>
       <c r="Q24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="R24" t="s">
+        <v>309</v>
+      </c>
+      <c r="S24" t="s">
+        <v>368</v>
+      </c>
+      <c r="T24" t="s">
+        <v>407</v>
+      </c>
+      <c r="U24" t="s">
+        <v>279</v>
+      </c>
+      <c r="V24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2310,13 +2934,28 @@
         <v>250</v>
       </c>
       <c r="P25" t="s">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="Q25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="R25" t="s">
+        <v>310</v>
+      </c>
+      <c r="S25" t="s">
+        <v>369</v>
+      </c>
+      <c r="T25" t="s">
+        <v>408</v>
+      </c>
+      <c r="U25" t="s">
+        <v>437</v>
+      </c>
+      <c r="V25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2336,13 +2975,28 @@
         <v>251</v>
       </c>
       <c r="P26" t="s">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="Q26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="R26" t="s">
+        <v>311</v>
+      </c>
+      <c r="S26" t="s">
+        <v>370</v>
+      </c>
+      <c r="T26" t="s">
+        <v>409</v>
+      </c>
+      <c r="U26" t="s">
+        <v>438</v>
+      </c>
+      <c r="V26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2362,13 +3016,28 @@
         <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>317</v>
+        <v>479</v>
       </c>
       <c r="Q27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="R27" t="s">
+        <v>312</v>
+      </c>
+      <c r="S27" t="s">
+        <v>371</v>
+      </c>
+      <c r="T27" t="s">
+        <v>410</v>
+      </c>
+      <c r="U27" t="s">
+        <v>439</v>
+      </c>
+      <c r="V27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2385,13 +3054,28 @@
         <v>192</v>
       </c>
       <c r="P28" t="s">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="Q28" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="R28" t="s">
+        <v>313</v>
+      </c>
+      <c r="S28" t="s">
+        <v>372</v>
+      </c>
+      <c r="T28" t="s">
+        <v>411</v>
+      </c>
+      <c r="U28" t="s">
+        <v>440</v>
+      </c>
+      <c r="V28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2408,13 +3092,28 @@
         <v>193</v>
       </c>
       <c r="P29" t="s">
-        <v>319</v>
+        <v>481</v>
       </c>
       <c r="Q29" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="R29" t="s">
+        <v>314</v>
+      </c>
+      <c r="S29" t="s">
+        <v>373</v>
+      </c>
+      <c r="T29" t="s">
+        <v>412</v>
+      </c>
+      <c r="U29" t="s">
+        <v>441</v>
+      </c>
+      <c r="V29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2430,14 +3129,26 @@
       <c r="N30" t="s">
         <v>194</v>
       </c>
-      <c r="P30" t="s">
-        <v>320</v>
-      </c>
       <c r="Q30" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="R30" t="s">
+        <v>315</v>
+      </c>
+      <c r="S30" t="s">
+        <v>374</v>
+      </c>
+      <c r="T30" t="s">
+        <v>413</v>
+      </c>
+      <c r="U30" t="s">
+        <v>442</v>
+      </c>
+      <c r="V30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2453,14 +3164,26 @@
       <c r="N31" t="s">
         <v>195</v>
       </c>
-      <c r="P31" t="s">
-        <v>321</v>
-      </c>
       <c r="Q31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="R31" t="s">
+        <v>316</v>
+      </c>
+      <c r="S31" t="s">
+        <v>375</v>
+      </c>
+      <c r="T31" t="s">
+        <v>414</v>
+      </c>
+      <c r="U31" t="s">
+        <v>443</v>
+      </c>
+      <c r="V31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2476,14 +3199,26 @@
       <c r="N32" t="s">
         <v>196</v>
       </c>
-      <c r="P32" t="s">
-        <v>322</v>
-      </c>
       <c r="Q32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="R32" t="s">
+        <v>317</v>
+      </c>
+      <c r="S32" t="s">
+        <v>376</v>
+      </c>
+      <c r="T32" t="s">
+        <v>415</v>
+      </c>
+      <c r="U32" t="s">
+        <v>444</v>
+      </c>
+      <c r="V32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2499,14 +3234,26 @@
       <c r="N33" t="s">
         <v>197</v>
       </c>
-      <c r="P33" t="s">
-        <v>323</v>
-      </c>
       <c r="Q33" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="R33" t="s">
+        <v>318</v>
+      </c>
+      <c r="S33" t="s">
+        <v>377</v>
+      </c>
+      <c r="T33" t="s">
+        <v>416</v>
+      </c>
+      <c r="U33" t="s">
+        <v>445</v>
+      </c>
+      <c r="V33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2522,14 +3269,26 @@
       <c r="N34" t="s">
         <v>198</v>
       </c>
-      <c r="P34" t="s">
-        <v>324</v>
-      </c>
       <c r="Q34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="R34" t="s">
+        <v>319</v>
+      </c>
+      <c r="S34" t="s">
+        <v>378</v>
+      </c>
+      <c r="T34" t="s">
+        <v>417</v>
+      </c>
+      <c r="U34" t="s">
+        <v>446</v>
+      </c>
+      <c r="V34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2545,14 +3304,26 @@
       <c r="N35" t="s">
         <v>199</v>
       </c>
-      <c r="P35" t="s">
-        <v>325</v>
-      </c>
       <c r="Q35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="R35" t="s">
+        <v>320</v>
+      </c>
+      <c r="S35" t="s">
+        <v>379</v>
+      </c>
+      <c r="T35" t="s">
+        <v>418</v>
+      </c>
+      <c r="U35" t="s">
+        <v>447</v>
+      </c>
+      <c r="V35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2565,14 +3336,23 @@
       <c r="N36" t="s">
         <v>200</v>
       </c>
-      <c r="P36" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>321</v>
+      </c>
+      <c r="S36" t="s">
+        <v>380</v>
+      </c>
+      <c r="T36" t="s">
+        <v>419</v>
+      </c>
+      <c r="U36" t="s">
+        <v>448</v>
+      </c>
+      <c r="V36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2585,14 +3365,23 @@
       <c r="N37" t="s">
         <v>201</v>
       </c>
-      <c r="P37" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>322</v>
+      </c>
+      <c r="S37" t="s">
+        <v>381</v>
+      </c>
+      <c r="T37" t="s">
+        <v>420</v>
+      </c>
+      <c r="U37" t="s">
+        <v>449</v>
+      </c>
+      <c r="V37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2605,14 +3394,23 @@
       <c r="N38" t="s">
         <v>202</v>
       </c>
-      <c r="P38" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>323</v>
+      </c>
+      <c r="S38" t="s">
+        <v>382</v>
+      </c>
+      <c r="T38" t="s">
+        <v>421</v>
+      </c>
+      <c r="U38" t="s">
+        <v>450</v>
+      </c>
+      <c r="V38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2625,14 +3423,23 @@
       <c r="N39" t="s">
         <v>203</v>
       </c>
-      <c r="P39" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>324</v>
+      </c>
+      <c r="S39" t="s">
+        <v>383</v>
+      </c>
+      <c r="T39" t="s">
+        <v>422</v>
+      </c>
+      <c r="U39" t="s">
+        <v>451</v>
+      </c>
+      <c r="V39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -2645,14 +3452,23 @@
       <c r="N40" t="s">
         <v>204</v>
       </c>
-      <c r="P40" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
+        <v>325</v>
+      </c>
+      <c r="S40" t="s">
+        <v>384</v>
+      </c>
+      <c r="T40" t="s">
+        <v>423</v>
+      </c>
+      <c r="U40" t="s">
+        <v>452</v>
+      </c>
+      <c r="V40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2665,14 +3481,23 @@
       <c r="N41" t="s">
         <v>205</v>
       </c>
-      <c r="P41" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
+        <v>326</v>
+      </c>
+      <c r="S41" t="s">
+        <v>385</v>
+      </c>
+      <c r="T41" t="s">
+        <v>424</v>
+      </c>
+      <c r="U41" t="s">
+        <v>453</v>
+      </c>
+      <c r="V41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2685,14 +3510,20 @@
       <c r="N42" t="s">
         <v>206</v>
       </c>
-      <c r="P42" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S42" t="s">
+        <v>386</v>
+      </c>
+      <c r="T42" t="s">
+        <v>425</v>
+      </c>
+      <c r="U42" t="s">
+        <v>454</v>
+      </c>
+      <c r="V42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -2705,14 +3536,20 @@
       <c r="N43" t="s">
         <v>207</v>
       </c>
-      <c r="P43" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S43" t="s">
+        <v>387</v>
+      </c>
+      <c r="T43" t="s">
+        <v>426</v>
+      </c>
+      <c r="U43" t="s">
+        <v>455</v>
+      </c>
+      <c r="V43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2725,14 +3562,20 @@
       <c r="N44" t="s">
         <v>208</v>
       </c>
-      <c r="P44" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S44" t="s">
+        <v>388</v>
+      </c>
+      <c r="T44" t="s">
+        <v>427</v>
+      </c>
+      <c r="U44" t="s">
+        <v>456</v>
+      </c>
+      <c r="V44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2745,14 +3588,20 @@
       <c r="N45" t="s">
         <v>209</v>
       </c>
-      <c r="P45" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S45" t="s">
+        <v>389</v>
+      </c>
+      <c r="T45" t="s">
+        <v>428</v>
+      </c>
+      <c r="U45" t="s">
+        <v>457</v>
+      </c>
+      <c r="V45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -2765,14 +3614,20 @@
       <c r="N46" t="s">
         <v>210</v>
       </c>
-      <c r="P46" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S46" t="s">
+        <v>390</v>
+      </c>
+      <c r="T46" t="s">
+        <v>429</v>
+      </c>
+      <c r="U46" t="s">
+        <v>458</v>
+      </c>
+      <c r="V46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -2785,14 +3640,20 @@
       <c r="N47" t="s">
         <v>211</v>
       </c>
-      <c r="P47" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S47" t="s">
+        <v>391</v>
+      </c>
+      <c r="T47" t="s">
+        <v>430</v>
+      </c>
+      <c r="U47" t="s">
+        <v>459</v>
+      </c>
+      <c r="V47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -2805,14 +3666,17 @@
       <c r="N48" t="s">
         <v>212</v>
       </c>
-      <c r="P48" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T48" t="s">
+        <v>431</v>
+      </c>
+      <c r="U48" t="s">
+        <v>460</v>
+      </c>
+      <c r="V48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2825,11 +3689,17 @@
       <c r="N49" t="s">
         <v>213</v>
       </c>
-      <c r="P49" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T49" t="s">
+        <v>432</v>
+      </c>
+      <c r="U49" t="s">
+        <v>461</v>
+      </c>
+      <c r="V49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -2842,11 +3712,17 @@
       <c r="N50" t="s">
         <v>214</v>
       </c>
-      <c r="P50" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T50" t="s">
+        <v>433</v>
+      </c>
+      <c r="U50" t="s">
+        <v>462</v>
+      </c>
+      <c r="V50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -2859,11 +3735,17 @@
       <c r="N51" t="s">
         <v>215</v>
       </c>
-      <c r="P51" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T51" t="s">
+        <v>434</v>
+      </c>
+      <c r="U51" t="s">
+        <v>463</v>
+      </c>
+      <c r="V51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -2873,11 +3755,17 @@
       <c r="N52" t="s">
         <v>216</v>
       </c>
-      <c r="P52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T52" t="s">
+        <v>435</v>
+      </c>
+      <c r="U52" t="s">
+        <v>464</v>
+      </c>
+      <c r="V52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -2887,11 +3775,17 @@
       <c r="N53" t="s">
         <v>70</v>
       </c>
-      <c r="P53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="T53" t="s">
+        <v>436</v>
+      </c>
+      <c r="U53" t="s">
+        <v>465</v>
+      </c>
+      <c r="V53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -2901,11 +3795,14 @@
       <c r="N54" t="s">
         <v>71</v>
       </c>
-      <c r="P54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="U54" t="s">
+        <v>466</v>
+      </c>
+      <c r="V54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -2915,11 +3812,14 @@
       <c r="N55" t="s">
         <v>72</v>
       </c>
-      <c r="P55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="U55" t="s">
+        <v>467</v>
+      </c>
+      <c r="V55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -2929,11 +3829,14 @@
       <c r="N56" t="s">
         <v>217</v>
       </c>
-      <c r="P56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="U56" t="s">
+        <v>468</v>
+      </c>
+      <c r="V56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -2943,11 +3846,14 @@
       <c r="N57" t="s">
         <v>218</v>
       </c>
-      <c r="P57" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="U57" t="s">
+        <v>469</v>
+      </c>
+      <c r="V57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -2957,11 +3863,14 @@
       <c r="N58" t="s">
         <v>219</v>
       </c>
-      <c r="P58" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="U58" t="s">
+        <v>470</v>
+      </c>
+      <c r="V58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2971,11 +3880,14 @@
       <c r="N59" t="s">
         <v>220</v>
       </c>
-      <c r="P59" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="U59" t="s">
+        <v>471</v>
+      </c>
+      <c r="V59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -2985,11 +3897,11 @@
       <c r="N60" t="s">
         <v>221</v>
       </c>
-      <c r="P60" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="V60" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -2999,11 +3911,11 @@
       <c r="N61" t="s">
         <v>222</v>
       </c>
-      <c r="P61" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="V61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -3013,11 +3925,11 @@
       <c r="N62" t="s">
         <v>223</v>
       </c>
-      <c r="P62" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="V62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -3027,11 +3939,11 @@
       <c r="N63" t="s">
         <v>224</v>
       </c>
-      <c r="P63" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="V63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -3041,11 +3953,11 @@
       <c r="N64" t="s">
         <v>225</v>
       </c>
-      <c r="P64" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="V64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -3055,11 +3967,11 @@
       <c r="N65" t="s">
         <v>226</v>
       </c>
-      <c r="P65" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="V65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -3069,11 +3981,8 @@
       <c r="N66" t="s">
         <v>227</v>
       </c>
-      <c r="P66" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -3083,11 +3992,8 @@
       <c r="N67" t="s">
         <v>228</v>
       </c>
-      <c r="P67" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -3097,11 +4003,8 @@
       <c r="N68" t="s">
         <v>229</v>
       </c>
-      <c r="P68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -3111,11 +4014,8 @@
       <c r="N69" t="s">
         <v>230</v>
       </c>
-      <c r="P69" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -3125,11 +4025,8 @@
       <c r="N70" t="s">
         <v>231</v>
       </c>
-      <c r="P70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -3139,11 +4036,8 @@
       <c r="N71" t="s">
         <v>232</v>
       </c>
-      <c r="P71" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -3153,11 +4047,8 @@
       <c r="N72" t="s">
         <v>233</v>
       </c>
-      <c r="P72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -3167,11 +4058,8 @@
       <c r="N73" t="s">
         <v>234</v>
       </c>
-      <c r="P73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -3181,11 +4069,8 @@
       <c r="N74" t="s">
         <v>235</v>
       </c>
-      <c r="P74" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -3195,11 +4080,8 @@
       <c r="N75" t="s">
         <v>236</v>
       </c>
-      <c r="P75" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -3207,22 +4089,22 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>270</v>
       </c>

--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="8980" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="689">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -1465,6 +1465,627 @@
   </si>
   <si>
     <t>tste_2_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_9_8*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_9_8*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_9_8*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_9_8*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_9_8*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_0</t>
+  </si>
+  <si>
+    <t>tste_11_1</t>
+  </si>
+  <si>
+    <t>tste_11_2</t>
+  </si>
+  <si>
+    <t>tste_11_3</t>
+  </si>
+  <si>
+    <t>tste_11_4</t>
+  </si>
+  <si>
+    <t>tste_11_5</t>
+  </si>
+  <si>
+    <t>tste_11_6</t>
+  </si>
+  <si>
+    <t>tste_11_7</t>
+  </si>
+  <si>
+    <t>tste_11_8</t>
+  </si>
+  <si>
+    <t>tste_11_9</t>
+  </si>
+  <si>
+    <t>tste_11_10</t>
+  </si>
+  <si>
+    <t>tste_11_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_8*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_9*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_10*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_11_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_8*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_9*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_10*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_11_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_8*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_9*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_10*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_11_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_8*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_9*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_10*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_11_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_8*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_9*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_11_10*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_0</t>
+  </si>
+  <si>
+    <t>tste_16_1</t>
+  </si>
+  <si>
+    <t>tste_16_2</t>
+  </si>
+  <si>
+    <t>tste_16_3</t>
+  </si>
+  <si>
+    <t>tste_16_4</t>
+  </si>
+  <si>
+    <t>tste_16_5</t>
+  </si>
+  <si>
+    <t>tste_16_6</t>
+  </si>
+  <si>
+    <t>tste_16_7</t>
+  </si>
+  <si>
+    <t>tste_16_8</t>
+  </si>
+  <si>
+    <t>tste_16_9</t>
+  </si>
+  <si>
+    <t>tste_16_10</t>
+  </si>
+  <si>
+    <t>tste_16_12</t>
+  </si>
+  <si>
+    <t>tste_16_13</t>
+  </si>
+  <si>
+    <t>tste_16_14</t>
+  </si>
+  <si>
+    <t>tste_16_15</t>
+  </si>
+  <si>
+    <t>tste_16_11</t>
+  </si>
+  <si>
+    <t>tste_16_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_8*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_9*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_10*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_11*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_12*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_13*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_14*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_15*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_16_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_8*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_9*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_10*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_11*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_12*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_13*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_14*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_15*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_16_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_8*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_9*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_10*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_11*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_12*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_13*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_14*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_15*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_16_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_8*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_9*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_10*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_11*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_12*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_13*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_14*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_15*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_16_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_8*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_9*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_10*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_11*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_12*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_13*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_14*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_16_15*gap_openness</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1807,10 +2428,11 @@
     <col min="16" max="16" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.453125" customWidth="1"/>
     <col min="18" max="21" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.453125" customWidth="1"/>
+    <col min="22" max="24" width="28.453125" customWidth="1"/>
+    <col min="25" max="27" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1859,8 +2481,23 @@
       <c r="V1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1909,8 +2546,23 @@
       <c r="V2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1959,8 +2611,23 @@
       <c r="V3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2006,8 +2673,23 @@
       <c r="V4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2053,8 +2735,23 @@
       <c r="V5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2103,8 +2800,23 @@
       <c r="V6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2153,8 +2865,23 @@
       <c r="V7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -2203,8 +2930,23 @@
       <c r="V8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2253,8 +2995,23 @@
       <c r="V9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W9" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2303,8 +3060,23 @@
       <c r="V10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2350,8 +3122,23 @@
       <c r="V11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2394,8 +3181,23 @@
       <c r="V12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2438,8 +3240,23 @@
       <c r="V13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2482,8 +3299,23 @@
       <c r="V14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2526,8 +3358,23 @@
       <c r="V15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2570,8 +3417,23 @@
       <c r="V16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2614,8 +3476,23 @@
       <c r="V17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W17" t="s">
+        <v>63</v>
+      </c>
+      <c r="X17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2658,8 +3535,23 @@
       <c r="V18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W18" t="s">
+        <v>288</v>
+      </c>
+      <c r="X18" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2702,8 +3594,23 @@
       <c r="V19" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W19" t="s">
+        <v>289</v>
+      </c>
+      <c r="X19" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2746,8 +3653,23 @@
       <c r="V20" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W20" t="s">
+        <v>290</v>
+      </c>
+      <c r="X20" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2790,8 +3712,23 @@
       <c r="V21" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W21" t="s">
+        <v>291</v>
+      </c>
+      <c r="X21" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2831,8 +3768,23 @@
       <c r="V22" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W22" t="s">
+        <v>292</v>
+      </c>
+      <c r="X22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2872,8 +3824,23 @@
       <c r="V23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W23" t="s">
+        <v>293</v>
+      </c>
+      <c r="X23" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2913,8 +3880,23 @@
       <c r="V24" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W24" t="s">
+        <v>294</v>
+      </c>
+      <c r="X24" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>533</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2954,8 +3936,23 @@
       <c r="V25" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W25" t="s">
+        <v>295</v>
+      </c>
+      <c r="X25" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2995,8 +3992,23 @@
       <c r="V26" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W26" t="s">
+        <v>296</v>
+      </c>
+      <c r="X26" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -3036,8 +4048,23 @@
       <c r="V27" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W27" t="s">
+        <v>482</v>
+      </c>
+      <c r="X27" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -3074,8 +4101,23 @@
       <c r="V28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W28" t="s">
+        <v>483</v>
+      </c>
+      <c r="X28" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -3112,8 +4154,23 @@
       <c r="V29" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W29" t="s">
+        <v>484</v>
+      </c>
+      <c r="X29" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>538</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -3147,8 +4204,23 @@
       <c r="V30" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W30" t="s">
+        <v>485</v>
+      </c>
+      <c r="X30" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -3182,8 +4254,23 @@
       <c r="V31" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W31" t="s">
+        <v>486</v>
+      </c>
+      <c r="X31" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -3217,8 +4304,23 @@
       <c r="V32" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W32" t="s">
+        <v>487</v>
+      </c>
+      <c r="X32" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3252,8 +4354,23 @@
       <c r="V33" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W33" t="s">
+        <v>488</v>
+      </c>
+      <c r="X33" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3287,8 +4404,23 @@
       <c r="V34" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W34" t="s">
+        <v>489</v>
+      </c>
+      <c r="X34" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3322,8 +4454,23 @@
       <c r="V35" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W35" t="s">
+        <v>522</v>
+      </c>
+      <c r="X35" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3351,8 +4498,23 @@
       <c r="V36" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W36" t="s">
+        <v>490</v>
+      </c>
+      <c r="X36" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3380,8 +4542,23 @@
       <c r="V37" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W37" t="s">
+        <v>491</v>
+      </c>
+      <c r="X37" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3409,8 +4586,23 @@
       <c r="V38" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W38" t="s">
+        <v>492</v>
+      </c>
+      <c r="X38" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3438,8 +4630,23 @@
       <c r="V39" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W39" t="s">
+        <v>493</v>
+      </c>
+      <c r="X39" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3467,8 +4674,23 @@
       <c r="V40" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W40" t="s">
+        <v>494</v>
+      </c>
+      <c r="X40" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3496,8 +4718,23 @@
       <c r="V41" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W41" t="s">
+        <v>495</v>
+      </c>
+      <c r="X41" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3522,8 +4759,23 @@
       <c r="V42" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W42" t="s">
+        <v>496</v>
+      </c>
+      <c r="X42" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -3548,8 +4800,23 @@
       <c r="V43" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W43" t="s">
+        <v>497</v>
+      </c>
+      <c r="X43" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3574,8 +4841,23 @@
       <c r="V44" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W44" t="s">
+        <v>523</v>
+      </c>
+      <c r="X44" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -3600,8 +4882,23 @@
       <c r="V45" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W45" t="s">
+        <v>498</v>
+      </c>
+      <c r="X45" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -3626,8 +4923,23 @@
       <c r="V46" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W46" t="s">
+        <v>499</v>
+      </c>
+      <c r="X46" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>555</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3652,8 +4964,23 @@
       <c r="V47" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W47" t="s">
+        <v>500</v>
+      </c>
+      <c r="X47" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -3675,8 +5002,23 @@
       <c r="V48" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W48" t="s">
+        <v>501</v>
+      </c>
+      <c r="X48" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -3698,8 +5040,23 @@
       <c r="V49" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W49" t="s">
+        <v>502</v>
+      </c>
+      <c r="X49" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +5078,23 @@
       <c r="V50" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W50" t="s">
+        <v>503</v>
+      </c>
+      <c r="X50" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -3744,8 +5116,23 @@
       <c r="V51" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W51" t="s">
+        <v>504</v>
+      </c>
+      <c r="X51" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3764,8 +5151,23 @@
       <c r="V52" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W52" t="s">
+        <v>505</v>
+      </c>
+      <c r="X52" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -3784,8 +5186,23 @@
       <c r="V53" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W53" t="s">
+        <v>524</v>
+      </c>
+      <c r="X53" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -3801,8 +5218,23 @@
       <c r="V54" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W54" t="s">
+        <v>506</v>
+      </c>
+      <c r="X54" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -3818,8 +5250,23 @@
       <c r="V55" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W55" t="s">
+        <v>507</v>
+      </c>
+      <c r="X55" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -3835,8 +5282,23 @@
       <c r="V56" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W56" t="s">
+        <v>508</v>
+      </c>
+      <c r="X56" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -3852,8 +5314,23 @@
       <c r="V57" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W57" t="s">
+        <v>509</v>
+      </c>
+      <c r="X57" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -3869,8 +5346,23 @@
       <c r="V58" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W58" t="s">
+        <v>510</v>
+      </c>
+      <c r="X58" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -3886,8 +5378,23 @@
       <c r="V59" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W59" t="s">
+        <v>511</v>
+      </c>
+      <c r="X59" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -3900,8 +5407,23 @@
       <c r="V60" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W60" t="s">
+        <v>512</v>
+      </c>
+      <c r="X60" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -3914,8 +5436,23 @@
       <c r="V61" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W61" t="s">
+        <v>513</v>
+      </c>
+      <c r="X61" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -3928,8 +5465,23 @@
       <c r="V62" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W62" t="s">
+        <v>525</v>
+      </c>
+      <c r="X62" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -3942,8 +5494,23 @@
       <c r="V63" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W63" t="s">
+        <v>514</v>
+      </c>
+      <c r="X63" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -3956,8 +5523,23 @@
       <c r="V64" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W64" t="s">
+        <v>515</v>
+      </c>
+      <c r="X64" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -3970,8 +5552,23 @@
       <c r="V65" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W65" t="s">
+        <v>516</v>
+      </c>
+      <c r="X65" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -3981,8 +5578,23 @@
       <c r="N66" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W66" t="s">
+        <v>517</v>
+      </c>
+      <c r="X66" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -3992,8 +5604,23 @@
       <c r="N67" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W67" t="s">
+        <v>518</v>
+      </c>
+      <c r="X67" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -4003,8 +5630,23 @@
       <c r="N68" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W68" t="s">
+        <v>519</v>
+      </c>
+      <c r="X68" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -4014,8 +5656,23 @@
       <c r="N69" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W69" t="s">
+        <v>520</v>
+      </c>
+      <c r="X69" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -4025,8 +5682,23 @@
       <c r="N70" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W70" t="s">
+        <v>521</v>
+      </c>
+      <c r="X70" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -4036,8 +5708,23 @@
       <c r="N71" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W71" t="s">
+        <v>526</v>
+      </c>
+      <c r="X71" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -4047,8 +5734,17 @@
       <c r="N72" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y72" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -4058,8 +5754,17 @@
       <c r="N73" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y73" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -4069,8 +5774,17 @@
       <c r="N74" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y74" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -4080,211 +5794,382 @@
       <c r="N75" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y75" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>266</v>
       </c>
       <c r="N76" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y76" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>585</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y77" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y78" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y79" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="Y80" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="Y81" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="Y82" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="Y83" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA84" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA85" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA86" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA87" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA88" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA89" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA90" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA91" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA92" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA93" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA94" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA95" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA96" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA97" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA98" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA99" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA100" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA101" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA102" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA103" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA104" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA105" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA106" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA107" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA108" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA109" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA110" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA111" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA112" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="AA113" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>306</v>
       </c>

--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="10170" yWindow="0" windowWidth="22260" windowHeight="12653"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="739">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -2086,6 +2086,156 @@
   </si>
   <si>
     <t>tste_16_15*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_8*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_9*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_10_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_8*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_9*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_10_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_8*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_9*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_10_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_8*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_9*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_10_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_8*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_10_9*gap_openness</t>
   </si>
 </sst>
 </file>
@@ -2410,29 +2560,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9:Y9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="7" max="7" width="42.08984375" customWidth="1"/>
-    <col min="9" max="9" width="34.7265625" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" customWidth="1"/>
-    <col min="12" max="12" width="45.1796875" customWidth="1"/>
-    <col min="13" max="15" width="45.08984375" customWidth="1"/>
-    <col min="16" max="16" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.453125" customWidth="1"/>
-    <col min="18" max="21" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="28.453125" customWidth="1"/>
-    <col min="25" max="27" width="26.1796875" customWidth="1"/>
+    <col min="7" max="7" width="42.06640625" customWidth="1"/>
+    <col min="9" max="9" width="34.73046875" customWidth="1"/>
+    <col min="10" max="10" width="1.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" customWidth="1"/>
+    <col min="12" max="12" width="45.19921875" customWidth="1"/>
+    <col min="13" max="15" width="45.06640625" customWidth="1"/>
+    <col min="16" max="16" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.46484375" customWidth="1"/>
+    <col min="18" max="21" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="28.46484375" customWidth="1"/>
+    <col min="24" max="26" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2493,11 +2643,8 @@
       <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2558,11 +2705,8 @@
       <c r="Z2" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2623,11 +2767,8 @@
       <c r="Z3" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2685,11 +2826,8 @@
       <c r="Z4" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2747,11 +2885,8 @@
       <c r="Z5" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2812,11 +2947,8 @@
       <c r="Z6" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2877,11 +3009,8 @@
       <c r="Z7" t="s">
         <v>181</v>
       </c>
-      <c r="AA7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -2942,11 +3071,8 @@
       <c r="Z8" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3007,11 +3133,8 @@
       <c r="Z9" t="s">
         <v>8</v>
       </c>
-      <c r="AA9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3072,11 +3195,8 @@
       <c r="Z10" t="s">
         <v>9</v>
       </c>
-      <c r="AA10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3134,11 +3254,8 @@
       <c r="Z11" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3193,11 +3310,8 @@
       <c r="Z12" t="s">
         <v>11</v>
       </c>
-      <c r="AA12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3252,11 +3366,8 @@
       <c r="Z13" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3311,11 +3422,8 @@
       <c r="Z14" t="s">
         <v>60</v>
       </c>
-      <c r="AA14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3370,11 +3478,8 @@
       <c r="Z15" t="s">
         <v>61</v>
       </c>
-      <c r="AA15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3429,11 +3534,8 @@
       <c r="Z16" t="s">
         <v>62</v>
       </c>
-      <c r="AA16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3488,11 +3590,8 @@
       <c r="Z17" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3539,19 +3638,16 @@
         <v>288</v>
       </c>
       <c r="X18" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Y18" t="s">
         <v>527</v>
       </c>
       <c r="Z18" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA18" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3598,19 +3694,16 @@
         <v>289</v>
       </c>
       <c r="X19" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Y19" t="s">
         <v>528</v>
       </c>
       <c r="Z19" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA19" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3657,19 +3750,16 @@
         <v>290</v>
       </c>
       <c r="X20" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Y20" t="s">
         <v>529</v>
       </c>
       <c r="Z20" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3716,19 +3806,16 @@
         <v>291</v>
       </c>
       <c r="X21" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Y21" t="s">
         <v>530</v>
       </c>
       <c r="Z21" t="s">
-        <v>530</v>
-      </c>
-      <c r="AA21" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3772,19 +3859,16 @@
         <v>292</v>
       </c>
       <c r="X22" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Y22" t="s">
         <v>531</v>
       </c>
       <c r="Z22" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA22" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3828,19 +3912,16 @@
         <v>293</v>
       </c>
       <c r="X23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Y23" t="s">
         <v>532</v>
       </c>
       <c r="Z23" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA23" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -3884,19 +3965,16 @@
         <v>294</v>
       </c>
       <c r="X24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Y24" t="s">
         <v>533</v>
       </c>
       <c r="Z24" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA24" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3940,19 +4018,16 @@
         <v>295</v>
       </c>
       <c r="X25" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Y25" t="s">
         <v>534</v>
       </c>
       <c r="Z25" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA25" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -3996,19 +4071,16 @@
         <v>296</v>
       </c>
       <c r="X26" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Y26" t="s">
         <v>535</v>
       </c>
       <c r="Z26" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA26" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -4052,19 +4124,16 @@
         <v>482</v>
       </c>
       <c r="X27" t="s">
-        <v>482</v>
+        <v>306</v>
       </c>
       <c r="Y27" t="s">
         <v>536</v>
       </c>
       <c r="Z27" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA27" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -4105,19 +4174,16 @@
         <v>483</v>
       </c>
       <c r="X28" t="s">
-        <v>483</v>
+        <v>689</v>
       </c>
       <c r="Y28" t="s">
         <v>537</v>
       </c>
       <c r="Z28" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA28" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -4158,19 +4224,16 @@
         <v>484</v>
       </c>
       <c r="X29" t="s">
-        <v>484</v>
+        <v>690</v>
       </c>
       <c r="Y29" t="s">
         <v>538</v>
       </c>
       <c r="Z29" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA29" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -4208,19 +4271,16 @@
         <v>485</v>
       </c>
       <c r="X30" t="s">
-        <v>485</v>
+        <v>691</v>
       </c>
       <c r="Y30" t="s">
         <v>539</v>
       </c>
       <c r="Z30" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA30" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -4258,19 +4318,16 @@
         <v>486</v>
       </c>
       <c r="X31" t="s">
-        <v>486</v>
+        <v>692</v>
       </c>
       <c r="Y31" t="s">
         <v>540</v>
       </c>
       <c r="Z31" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA31" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -4308,19 +4365,16 @@
         <v>487</v>
       </c>
       <c r="X32" t="s">
-        <v>487</v>
+        <v>693</v>
       </c>
       <c r="Y32" t="s">
         <v>541</v>
       </c>
       <c r="Z32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA32" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4358,19 +4412,16 @@
         <v>488</v>
       </c>
       <c r="X33" t="s">
-        <v>488</v>
+        <v>694</v>
       </c>
       <c r="Y33" t="s">
         <v>542</v>
       </c>
       <c r="Z33" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA33" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4408,19 +4459,16 @@
         <v>489</v>
       </c>
       <c r="X34" t="s">
-        <v>489</v>
+        <v>695</v>
       </c>
       <c r="Y34" t="s">
         <v>543</v>
       </c>
       <c r="Z34" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA34" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -4458,19 +4506,16 @@
         <v>522</v>
       </c>
       <c r="X35" t="s">
-        <v>522</v>
+        <v>696</v>
       </c>
       <c r="Y35" t="s">
         <v>544</v>
       </c>
       <c r="Z35" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA35" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -4502,19 +4547,16 @@
         <v>490</v>
       </c>
       <c r="X36" t="s">
-        <v>490</v>
+        <v>697</v>
       </c>
       <c r="Y36" t="s">
         <v>545</v>
       </c>
       <c r="Z36" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA36" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4546,19 +4588,16 @@
         <v>491</v>
       </c>
       <c r="X37" t="s">
-        <v>491</v>
+        <v>698</v>
       </c>
       <c r="Y37" t="s">
         <v>546</v>
       </c>
       <c r="Z37" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA37" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4590,19 +4629,16 @@
         <v>492</v>
       </c>
       <c r="X38" t="s">
-        <v>492</v>
+        <v>699</v>
       </c>
       <c r="Y38" t="s">
         <v>547</v>
       </c>
       <c r="Z38" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA38" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -4634,19 +4670,16 @@
         <v>493</v>
       </c>
       <c r="X39" t="s">
-        <v>493</v>
+        <v>700</v>
       </c>
       <c r="Y39" t="s">
         <v>548</v>
       </c>
       <c r="Z39" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA39" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -4678,19 +4711,16 @@
         <v>494</v>
       </c>
       <c r="X40" t="s">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="Y40" t="s">
         <v>549</v>
       </c>
       <c r="Z40" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA40" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -4722,19 +4752,16 @@
         <v>495</v>
       </c>
       <c r="X41" t="s">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="Y41" t="s">
         <v>550</v>
       </c>
       <c r="Z41" t="s">
-        <v>550</v>
-      </c>
-      <c r="AA41" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -4763,19 +4790,16 @@
         <v>496</v>
       </c>
       <c r="X42" t="s">
-        <v>496</v>
+        <v>703</v>
       </c>
       <c r="Y42" t="s">
         <v>551</v>
       </c>
       <c r="Z42" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA42" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -4804,19 +4828,16 @@
         <v>497</v>
       </c>
       <c r="X43" t="s">
-        <v>497</v>
+        <v>704</v>
       </c>
       <c r="Y43" t="s">
         <v>552</v>
       </c>
       <c r="Z43" t="s">
-        <v>552</v>
-      </c>
-      <c r="AA43" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4845,19 +4866,16 @@
         <v>523</v>
       </c>
       <c r="X44" t="s">
-        <v>523</v>
+        <v>705</v>
       </c>
       <c r="Y44" t="s">
         <v>553</v>
       </c>
       <c r="Z44" t="s">
-        <v>553</v>
-      </c>
-      <c r="AA44" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -4886,19 +4904,16 @@
         <v>498</v>
       </c>
       <c r="X45" t="s">
-        <v>498</v>
+        <v>706</v>
       </c>
       <c r="Y45" t="s">
         <v>554</v>
       </c>
       <c r="Z45" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA45" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -4927,19 +4942,16 @@
         <v>499</v>
       </c>
       <c r="X46" t="s">
-        <v>499</v>
+        <v>707</v>
       </c>
       <c r="Y46" t="s">
         <v>555</v>
       </c>
       <c r="Z46" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA46" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4968,19 +4980,16 @@
         <v>500</v>
       </c>
       <c r="X47" t="s">
-        <v>500</v>
+        <v>708</v>
       </c>
       <c r="Y47" t="s">
         <v>556</v>
       </c>
       <c r="Z47" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA47" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -5006,19 +5015,16 @@
         <v>501</v>
       </c>
       <c r="X48" t="s">
-        <v>501</v>
+        <v>709</v>
       </c>
       <c r="Y48" t="s">
         <v>557</v>
       </c>
       <c r="Z48" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA48" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -5044,19 +5050,16 @@
         <v>502</v>
       </c>
       <c r="X49" t="s">
-        <v>502</v>
+        <v>710</v>
       </c>
       <c r="Y49" t="s">
         <v>558</v>
       </c>
       <c r="Z49" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA49" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -5082,19 +5085,16 @@
         <v>503</v>
       </c>
       <c r="X50" t="s">
-        <v>503</v>
+        <v>711</v>
       </c>
       <c r="Y50" t="s">
         <v>559</v>
       </c>
       <c r="Z50" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA50" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -5120,19 +5120,16 @@
         <v>504</v>
       </c>
       <c r="X51" t="s">
-        <v>504</v>
+        <v>712</v>
       </c>
       <c r="Y51" t="s">
         <v>560</v>
       </c>
       <c r="Z51" t="s">
-        <v>560</v>
-      </c>
-      <c r="AA51" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -5155,19 +5152,16 @@
         <v>505</v>
       </c>
       <c r="X52" t="s">
-        <v>505</v>
+        <v>713</v>
       </c>
       <c r="Y52" t="s">
         <v>561</v>
       </c>
       <c r="Z52" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA52" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -5190,19 +5184,16 @@
         <v>524</v>
       </c>
       <c r="X53" t="s">
-        <v>524</v>
+        <v>714</v>
       </c>
       <c r="Y53" t="s">
         <v>562</v>
       </c>
       <c r="Z53" t="s">
-        <v>562</v>
-      </c>
-      <c r="AA53" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -5222,19 +5213,16 @@
         <v>506</v>
       </c>
       <c r="X54" t="s">
-        <v>506</v>
+        <v>715</v>
       </c>
       <c r="Y54" t="s">
         <v>563</v>
       </c>
       <c r="Z54" t="s">
-        <v>563</v>
-      </c>
-      <c r="AA54" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -5254,19 +5242,16 @@
         <v>507</v>
       </c>
       <c r="X55" t="s">
-        <v>507</v>
+        <v>716</v>
       </c>
       <c r="Y55" t="s">
         <v>564</v>
       </c>
       <c r="Z55" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA55" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -5286,19 +5271,16 @@
         <v>508</v>
       </c>
       <c r="X56" t="s">
-        <v>508</v>
+        <v>717</v>
       </c>
       <c r="Y56" t="s">
         <v>565</v>
       </c>
       <c r="Z56" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA56" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -5318,19 +5300,16 @@
         <v>509</v>
       </c>
       <c r="X57" t="s">
-        <v>509</v>
+        <v>718</v>
       </c>
       <c r="Y57" t="s">
         <v>566</v>
       </c>
       <c r="Z57" t="s">
-        <v>566</v>
-      </c>
-      <c r="AA57" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -5350,19 +5329,16 @@
         <v>510</v>
       </c>
       <c r="X58" t="s">
-        <v>510</v>
+        <v>719</v>
       </c>
       <c r="Y58" t="s">
         <v>567</v>
       </c>
       <c r="Z58" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA58" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -5382,19 +5358,16 @@
         <v>511</v>
       </c>
       <c r="X59" t="s">
-        <v>511</v>
+        <v>720</v>
       </c>
       <c r="Y59" t="s">
         <v>568</v>
       </c>
       <c r="Z59" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA59" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -5411,19 +5384,16 @@
         <v>512</v>
       </c>
       <c r="X60" t="s">
-        <v>512</v>
+        <v>721</v>
       </c>
       <c r="Y60" t="s">
         <v>569</v>
       </c>
       <c r="Z60" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA60" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5440,19 +5410,16 @@
         <v>513</v>
       </c>
       <c r="X61" t="s">
-        <v>513</v>
+        <v>722</v>
       </c>
       <c r="Y61" t="s">
         <v>570</v>
       </c>
       <c r="Z61" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA61" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -5469,19 +5436,16 @@
         <v>525</v>
       </c>
       <c r="X62" t="s">
-        <v>525</v>
+        <v>723</v>
       </c>
       <c r="Y62" t="s">
         <v>571</v>
       </c>
       <c r="Z62" t="s">
-        <v>571</v>
-      </c>
-      <c r="AA62" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -5498,19 +5462,16 @@
         <v>514</v>
       </c>
       <c r="X63" t="s">
-        <v>514</v>
+        <v>724</v>
       </c>
       <c r="Y63" t="s">
         <v>572</v>
       </c>
       <c r="Z63" t="s">
-        <v>572</v>
-      </c>
-      <c r="AA63" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -5527,19 +5488,16 @@
         <v>515</v>
       </c>
       <c r="X64" t="s">
-        <v>515</v>
+        <v>725</v>
       </c>
       <c r="Y64" t="s">
         <v>573</v>
       </c>
       <c r="Z64" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA64" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -5556,19 +5514,16 @@
         <v>516</v>
       </c>
       <c r="X65" t="s">
-        <v>516</v>
+        <v>726</v>
       </c>
       <c r="Y65" t="s">
         <v>574</v>
       </c>
       <c r="Z65" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA65" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -5582,19 +5537,16 @@
         <v>517</v>
       </c>
       <c r="X66" t="s">
-        <v>517</v>
+        <v>727</v>
       </c>
       <c r="Y66" t="s">
         <v>575</v>
       </c>
       <c r="Z66" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA66" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -5608,19 +5560,16 @@
         <v>518</v>
       </c>
       <c r="X67" t="s">
-        <v>518</v>
+        <v>728</v>
       </c>
       <c r="Y67" t="s">
         <v>576</v>
       </c>
       <c r="Z67" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA67" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -5634,19 +5583,16 @@
         <v>519</v>
       </c>
       <c r="X68" t="s">
-        <v>519</v>
+        <v>729</v>
       </c>
       <c r="Y68" t="s">
         <v>577</v>
       </c>
       <c r="Z68" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA68" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -5660,19 +5606,16 @@
         <v>520</v>
       </c>
       <c r="X69" t="s">
-        <v>520</v>
+        <v>730</v>
       </c>
       <c r="Y69" t="s">
         <v>578</v>
       </c>
       <c r="Z69" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA69" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -5686,19 +5629,16 @@
         <v>521</v>
       </c>
       <c r="X70" t="s">
-        <v>521</v>
+        <v>731</v>
       </c>
       <c r="Y70" t="s">
         <v>579</v>
       </c>
       <c r="Z70" t="s">
-        <v>579</v>
-      </c>
-      <c r="AA70" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -5712,19 +5652,16 @@
         <v>526</v>
       </c>
       <c r="X71" t="s">
-        <v>526</v>
+        <v>732</v>
       </c>
       <c r="Y71" t="s">
         <v>580</v>
       </c>
       <c r="Z71" t="s">
-        <v>580</v>
-      </c>
-      <c r="AA71" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -5734,17 +5671,17 @@
       <c r="N72" t="s">
         <v>233</v>
       </c>
+      <c r="X72" t="s">
+        <v>733</v>
+      </c>
       <c r="Y72" t="s">
         <v>581</v>
       </c>
       <c r="Z72" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA72" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -5754,17 +5691,17 @@
       <c r="N73" t="s">
         <v>234</v>
       </c>
+      <c r="X73" t="s">
+        <v>734</v>
+      </c>
       <c r="Y73" t="s">
         <v>582</v>
       </c>
       <c r="Z73" t="s">
-        <v>582</v>
-      </c>
-      <c r="AA73" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -5774,17 +5711,17 @@
       <c r="N74" t="s">
         <v>235</v>
       </c>
+      <c r="X74" t="s">
+        <v>735</v>
+      </c>
       <c r="Y74" t="s">
         <v>583</v>
       </c>
       <c r="Z74" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA74" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -5794,48 +5731,48 @@
       <c r="N75" t="s">
         <v>236</v>
       </c>
+      <c r="X75" t="s">
+        <v>736</v>
+      </c>
       <c r="Y75" t="s">
         <v>584</v>
       </c>
       <c r="Z75" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA75" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>266</v>
       </c>
       <c r="N76" t="s">
         <v>237</v>
       </c>
+      <c r="X76" t="s">
+        <v>737</v>
+      </c>
       <c r="Y76" t="s">
         <v>585</v>
       </c>
       <c r="Z76" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA76" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>267</v>
       </c>
+      <c r="X77" t="s">
+        <v>738</v>
+      </c>
       <c r="Y77" t="s">
         <v>586</v>
       </c>
       <c r="Z77" t="s">
-        <v>586</v>
-      </c>
-      <c r="AA77" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -5843,13 +5780,10 @@
         <v>587</v>
       </c>
       <c r="Z78" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA78" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -5857,13 +5791,10 @@
         <v>588</v>
       </c>
       <c r="Z79" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA79" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -5871,13 +5802,10 @@
         <v>589</v>
       </c>
       <c r="Z80" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA80" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -5885,13 +5813,10 @@
         <v>590</v>
       </c>
       <c r="Z81" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA81" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -5899,13 +5824,10 @@
         <v>591</v>
       </c>
       <c r="Z82" t="s">
-        <v>591</v>
-      </c>
-      <c r="AA82" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>273</v>
       </c>
@@ -5913,263 +5835,260 @@
         <v>592</v>
       </c>
       <c r="Z83" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA83" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>274</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="Z84" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>275</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="Z85" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>276</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="Z86" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>277</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="Z87" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>278</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="Z88" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>279</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="Z89" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>280</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="Z90" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>281</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="Z91" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>282</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="Z92" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>283</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="Z93" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>284</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="Z94" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>285</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="Z95" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>286</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="Z96" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>287</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="Z97" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>288</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="Z98" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>289</v>
       </c>
-      <c r="AA99" t="s">
+      <c r="Z99" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>290</v>
       </c>
-      <c r="AA100" t="s">
+      <c r="Z100" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>291</v>
       </c>
-      <c r="AA101" t="s">
+      <c r="Z101" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>292</v>
       </c>
-      <c r="AA102" t="s">
+      <c r="Z102" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>293</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="Z103" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>294</v>
       </c>
-      <c r="AA104" t="s">
+      <c r="Z104" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>295</v>
       </c>
-      <c r="AA105" t="s">
+      <c r="Z105" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>296</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="Z106" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>297</v>
       </c>
-      <c r="AA107" t="s">
+      <c r="Z107" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>298</v>
       </c>
-      <c r="AA108" t="s">
+      <c r="Z108" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>299</v>
       </c>
-      <c r="AA109" t="s">
+      <c r="Z109" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>300</v>
       </c>
-      <c r="AA110" t="s">
+      <c r="Z110" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>301</v>
       </c>
-      <c r="AA111" t="s">
+      <c r="Z111" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>302</v>
       </c>
-      <c r="AA112" t="s">
+      <c r="Z112" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>303</v>
       </c>
-      <c r="AA113" t="s">
+      <c r="Z113" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>306</v>
       </c>

--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="0" windowWidth="22260" windowHeight="12653"/>
+    <workbookView xWindow="12130" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="949">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -2236,6 +2236,636 @@
   </si>
   <si>
     <t>tste_10_9*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_0</t>
+  </si>
+  <si>
+    <t>tste_17_1</t>
+  </si>
+  <si>
+    <t>tste_17_2</t>
+  </si>
+  <si>
+    <t>tste_17_3</t>
+  </si>
+  <si>
+    <t>tste_17_4</t>
+  </si>
+  <si>
+    <t>tste_17_5</t>
+  </si>
+  <si>
+    <t>tste_17_6</t>
+  </si>
+  <si>
+    <t>tste_17_7</t>
+  </si>
+  <si>
+    <t>tste_17_8</t>
+  </si>
+  <si>
+    <t>tste_17_9</t>
+  </si>
+  <si>
+    <t>tste_17_10</t>
+  </si>
+  <si>
+    <t>tste_17_11</t>
+  </si>
+  <si>
+    <t>tste_17_12</t>
+  </si>
+  <si>
+    <t>tste_17_13</t>
+  </si>
+  <si>
+    <t>tste_17_14</t>
+  </si>
+  <si>
+    <t>tste_17_15</t>
+  </si>
+  <si>
+    <t>tste_17_16</t>
+  </si>
+  <si>
+    <t>tste_17_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_8*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_9*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_10*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_11*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_12*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_13*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_14*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_15*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_16*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_17_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_8*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_9*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_10*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_11*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_12*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_13*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_14*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_15*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_16*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_17_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_8*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_9*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_10*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_11*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_12*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_13*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_14*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_15*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_16*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_17_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_8*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_9*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_10*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_11*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_12*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_13*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_14*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_15*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_16*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_17_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_8*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_9*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_10*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_11*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_12*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_13*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_14*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_15*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_17_16*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_0</t>
+  </si>
+  <si>
+    <t>tste_18_1</t>
+  </si>
+  <si>
+    <t>tste_18_2</t>
+  </si>
+  <si>
+    <t>tste_18_3</t>
+  </si>
+  <si>
+    <t>tste_18_4</t>
+  </si>
+  <si>
+    <t>tste_18_5</t>
+  </si>
+  <si>
+    <t>tste_18_6</t>
+  </si>
+  <si>
+    <t>tste_18_7</t>
+  </si>
+  <si>
+    <t>tste_18_8</t>
+  </si>
+  <si>
+    <t>tste_18_9</t>
+  </si>
+  <si>
+    <t>tste_18_10</t>
+  </si>
+  <si>
+    <t>tste_18_11</t>
+  </si>
+  <si>
+    <t>tste_18_12</t>
+  </si>
+  <si>
+    <t>tste_18_13</t>
+  </si>
+  <si>
+    <t>tste_18_14</t>
+  </si>
+  <si>
+    <t>tste_18_15</t>
+  </si>
+  <si>
+    <t>tste_18_16</t>
+  </si>
+  <si>
+    <t>tste_18_17</t>
+  </si>
+  <si>
+    <t>tste_18_0*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_1*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_2*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_3*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_4*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_5*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_6*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_7*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_8*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_9*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_10*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_11*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_12*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_13*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_14*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_15*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_16*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_17*gap_extraversion</t>
+  </si>
+  <si>
+    <t>tste_18_0*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_1*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_2*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_3*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_4*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_5*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_6*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_7*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_8*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_9*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_10*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_11*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_12*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_13*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_14*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_15*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_16*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_17*gap_agreeableness</t>
+  </si>
+  <si>
+    <t>tste_18_0*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_1*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_2*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_3*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_4*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_5*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_6*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_7*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_8*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_9*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_10*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_11*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_12*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_13*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_14*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_15*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_16*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_17*gap_conscientiousness</t>
+  </si>
+  <si>
+    <t>tste_18_0*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_1*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_2*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_3*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_4*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_5*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_6*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_7*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_8*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_9*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_10*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_11*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_12*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_13*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_14*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_15*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_16*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_17*gap_emotionstability</t>
+  </si>
+  <si>
+    <t>tste_18_0*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_1*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_2*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_3*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_4*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_5*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_6*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_7*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_8*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_9*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_10*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_11*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_12*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_13*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_14*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_15*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_16*gap_openness</t>
+  </si>
+  <si>
+    <t>tste_18_17*gap_openness</t>
   </si>
 </sst>
 </file>
@@ -2560,29 +3190,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="7" max="7" width="42.06640625" customWidth="1"/>
-    <col min="9" max="9" width="34.73046875" customWidth="1"/>
-    <col min="10" max="10" width="1.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.796875" customWidth="1"/>
-    <col min="12" max="12" width="45.19921875" customWidth="1"/>
-    <col min="13" max="15" width="45.06640625" customWidth="1"/>
-    <col min="16" max="16" width="28.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.46484375" customWidth="1"/>
-    <col min="18" max="21" width="28.46484375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="28.46484375" customWidth="1"/>
-    <col min="24" max="26" width="26.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.08984375" customWidth="1"/>
+    <col min="9" max="9" width="34.7265625" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" customWidth="1"/>
+    <col min="12" max="12" width="45.1796875" customWidth="1"/>
+    <col min="13" max="15" width="45.08984375" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.453125" customWidth="1"/>
+    <col min="18" max="21" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="28.453125" customWidth="1"/>
+    <col min="24" max="28" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2643,8 +3273,14 @@
       <c r="Z1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2705,8 +3341,14 @@
       <c r="Z2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2767,8 +3409,14 @@
       <c r="Z3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2826,8 +3474,14 @@
       <c r="Z4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2885,8 +3539,14 @@
       <c r="Z5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2947,8 +3607,14 @@
       <c r="Z6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3009,8 +3675,14 @@
       <c r="Z7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -3071,8 +3743,14 @@
       <c r="Z8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3133,8 +3811,14 @@
       <c r="Z9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3195,8 +3879,14 @@
       <c r="Z10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3254,8 +3944,14 @@
       <c r="Z11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3310,8 +4006,14 @@
       <c r="Z12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3366,8 +4068,14 @@
       <c r="Z13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +4130,14 @@
       <c r="Z14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +4192,14 @@
       <c r="Z15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4254,14 @@
       <c r="Z16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3590,8 +4316,14 @@
       <c r="Z17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3646,8 +4378,14 @@
       <c r="Z18" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA18" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3702,8 +4440,14 @@
       <c r="Z19" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA19" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3758,8 +4502,14 @@
       <c r="Z20" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA20" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3814,8 +4564,14 @@
       <c r="Z21" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3867,8 +4623,14 @@
       <c r="Z22" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA22" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3920,8 +4682,14 @@
       <c r="Z23" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA23" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -3973,8 +4741,14 @@
       <c r="Z24" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA24" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -4026,8 +4800,14 @@
       <c r="Z25" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA25" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -4079,8 +4859,14 @@
       <c r="Z26" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA26" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -4132,8 +4918,14 @@
       <c r="Z27" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA27" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -4182,8 +4974,14 @@
       <c r="Z28" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA28" t="s">
+        <v>749</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -4232,8 +5030,14 @@
       <c r="Z29" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA29" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -4279,8 +5083,14 @@
       <c r="Z30" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA30" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -4326,8 +5136,14 @@
       <c r="Z31" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA31" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -4373,8 +5189,14 @@
       <c r="Z32" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA32" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4420,8 +5242,14 @@
       <c r="Z33" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA33" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -4467,8 +5295,14 @@
       <c r="Z34" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA34" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -4514,8 +5348,14 @@
       <c r="Z35" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA35" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -4555,8 +5395,14 @@
       <c r="Z36" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA36" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4596,8 +5442,14 @@
       <c r="Z37" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA37" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4637,8 +5489,14 @@
       <c r="Z38" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA38" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -4678,8 +5536,14 @@
       <c r="Z39" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA39" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -4719,8 +5583,14 @@
       <c r="Z40" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA40" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -4760,8 +5630,14 @@
       <c r="Z41" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA41" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -4798,8 +5674,14 @@
       <c r="Z42" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA42" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -4836,8 +5718,14 @@
       <c r="Z43" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA43" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -4874,8 +5762,14 @@
       <c r="Z44" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA44" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -4912,8 +5806,14 @@
       <c r="Z45" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA45" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5850,14 @@
       <c r="Z46" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA46" t="s">
+        <v>767</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -4988,8 +5894,14 @@
       <c r="Z47" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA47" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -5023,8 +5935,14 @@
       <c r="Z48" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA48" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -5058,8 +5976,14 @@
       <c r="Z49" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA49" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -5093,8 +6017,14 @@
       <c r="Z50" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA50" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -5128,8 +6058,14 @@
       <c r="Z51" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA51" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -5160,8 +6096,14 @@
       <c r="Z52" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA52" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -5192,8 +6134,14 @@
       <c r="Z53" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA53" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -5221,8 +6169,14 @@
       <c r="Z54" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA54" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -5250,8 +6204,14 @@
       <c r="Z55" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA55" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -5279,8 +6239,14 @@
       <c r="Z56" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA56" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -5308,8 +6274,14 @@
       <c r="Z57" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA57" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -5337,8 +6309,14 @@
       <c r="Z58" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA58" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -5366,8 +6344,14 @@
       <c r="Z59" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA59" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -5392,8 +6376,14 @@
       <c r="Z60" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA60" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5418,8 +6408,14 @@
       <c r="Z61" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA61" t="s">
+        <v>782</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -5444,8 +6440,14 @@
       <c r="Z62" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA62" t="s">
+        <v>783</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -5470,8 +6472,14 @@
       <c r="Z63" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA63" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -5496,8 +6504,14 @@
       <c r="Z64" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA64" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -5522,8 +6536,14 @@
       <c r="Z65" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA65" t="s">
+        <v>786</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -5545,8 +6565,14 @@
       <c r="Z66" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA66" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -5568,8 +6594,14 @@
       <c r="Z67" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA67" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -5591,8 +6623,14 @@
       <c r="Z68" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA68" t="s">
+        <v>789</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -5614,8 +6652,14 @@
       <c r="Z69" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA69" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -5637,8 +6681,14 @@
       <c r="Z70" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA70" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -5660,8 +6710,14 @@
       <c r="Z71" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA71" t="s">
+        <v>792</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -5680,8 +6736,14 @@
       <c r="Z72" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA72" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -5700,8 +6762,14 @@
       <c r="Z73" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA73" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -5720,8 +6788,14 @@
       <c r="Z74" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA74" t="s">
+        <v>795</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -5740,8 +6814,14 @@
       <c r="Z75" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA75" t="s">
+        <v>796</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -5757,8 +6837,14 @@
       <c r="Z76" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA76" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -5771,8 +6857,14 @@
       <c r="Z77" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA77" t="s">
+        <v>798</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -5782,8 +6874,14 @@
       <c r="Z78" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA78" t="s">
+        <v>799</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -5793,8 +6891,14 @@
       <c r="Z79" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA79" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -5804,8 +6908,14 @@
       <c r="Z80" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA80" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -5815,8 +6925,14 @@
       <c r="Z81" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA81" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -5826,8 +6942,14 @@
       <c r="Z82" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA82" t="s">
+        <v>803</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>273</v>
       </c>
@@ -5837,260 +6959,518 @@
       <c r="Z83" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA83" t="s">
+        <v>804</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>274</v>
       </c>
       <c r="Z84" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA84" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>275</v>
       </c>
       <c r="Z85" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA85" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>276</v>
       </c>
       <c r="Z86" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA86" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>277</v>
       </c>
       <c r="Z87" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA87" t="s">
+        <v>808</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>278</v>
       </c>
       <c r="Z88" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA88" t="s">
+        <v>809</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>279</v>
       </c>
       <c r="Z89" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA89" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>280</v>
       </c>
       <c r="Z90" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA90" t="s">
+        <v>811</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>281</v>
       </c>
       <c r="Z91" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA91" t="s">
+        <v>812</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>282</v>
       </c>
       <c r="Z92" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA92" t="s">
+        <v>813</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>283</v>
       </c>
       <c r="Z93" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA93" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>284</v>
       </c>
       <c r="Z94" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA94" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
       <c r="Z95" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA95" t="s">
+        <v>816</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>286</v>
       </c>
       <c r="Z96" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA96" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>287</v>
       </c>
       <c r="Z97" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA97" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>288</v>
       </c>
       <c r="Z98" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA98" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>289</v>
       </c>
       <c r="Z99" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA99" t="s">
+        <v>820</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>290</v>
       </c>
       <c r="Z100" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA100" t="s">
+        <v>821</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>291</v>
       </c>
       <c r="Z101" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA101" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>292</v>
       </c>
       <c r="Z102" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA102" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>293</v>
       </c>
       <c r="Z103" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA103" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>294</v>
       </c>
       <c r="Z104" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA104" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>295</v>
       </c>
       <c r="Z105" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA105" t="s">
+        <v>826</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>296</v>
       </c>
       <c r="Z106" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA106" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>297</v>
       </c>
       <c r="Z107" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA107" t="s">
+        <v>828</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>298</v>
       </c>
       <c r="Z108" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA108" t="s">
+        <v>829</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>299</v>
       </c>
       <c r="Z109" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA109" t="s">
+        <v>830</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>300</v>
       </c>
       <c r="Z110" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA110" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>301</v>
       </c>
       <c r="Z111" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA111" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>302</v>
       </c>
       <c r="Z112" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA112" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>303</v>
       </c>
       <c r="Z113" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA113" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA114" t="s">
+        <v>835</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AA115" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>306</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>837</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AA117" t="s">
+        <v>838</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AA118" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AA119" t="s">
+        <v>840</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB120" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB121" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB122" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB123" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB124" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AB125" t="s">
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="0" windowWidth="22260" windowHeight="12653" activeTab="2"/>
+    <workbookView xWindow="15280" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13839" uniqueCount="7065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14006" uniqueCount="7129">
   <si>
     <t>distance_survey_mean_1</t>
   </si>
@@ -21216,12 +21217,204 @@
   </si>
   <si>
     <t>tste_20_19_ct*gap_openness</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>r_ss</t>
+  </si>
+  <si>
+    <t>r_sd</t>
+  </si>
+  <si>
+    <t>r_sc</t>
+  </si>
+  <si>
+    <t>r_ss_rXss</t>
+  </si>
+  <si>
+    <t>r_sd_rXsd</t>
+  </si>
+  <si>
+    <t>r_sc_rXsc</t>
+  </si>
+  <si>
+    <t>satis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>dissatis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>combined_autonomy_ct</t>
+  </si>
+  <si>
+    <t>satis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>dissatis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>combined_relatedness_ct</t>
+  </si>
+  <si>
+    <t>satis_competence_ct</t>
+  </si>
+  <si>
+    <t>dissatis_competence_ct</t>
+  </si>
+  <si>
+    <t>combined_competence_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*satis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*dissatis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*combined_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*satis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*dissatis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*combined_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*satis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*dissatis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*combined_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*satis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*dissatis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*combined_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*satis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*dissatis_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*combined_autonomy_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*satis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*dissatis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*combined_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*satis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*dissatis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*combined_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*satis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*dissatis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*combined_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*satis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*dissatis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*combined_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*satis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*dissatis_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*combined_relatedness_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*satis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*dissatis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_extraversion_ct*combined_competence_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*satis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*dissatis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_agreeableness_ct*combined_competence_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*satis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*dissatis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_conscientiousness_ct*combined_competence_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*satis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*dissatis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_emotionstability_ct*combined_competence_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*satis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*dissatis_competence_ct</t>
+  </si>
+  <si>
+    <t>real_openness_ct*combined_competence_ct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -21539,30 +21732,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="7" max="7" width="42.06640625" customWidth="1"/>
-    <col min="9" max="9" width="34.73046875" customWidth="1"/>
-    <col min="10" max="10" width="1.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.796875" customWidth="1"/>
-    <col min="12" max="12" width="45.19921875" customWidth="1"/>
-    <col min="13" max="15" width="45.06640625" customWidth="1"/>
-    <col min="16" max="16" width="28.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.46484375" customWidth="1"/>
-    <col min="18" max="21" width="28.46484375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="28.46484375" customWidth="1"/>
-    <col min="24" max="28" width="26.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.08984375" customWidth="1"/>
+    <col min="9" max="9" width="34.7265625" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" customWidth="1"/>
+    <col min="12" max="12" width="45.1796875" customWidth="1"/>
+    <col min="13" max="15" width="45.08984375" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.453125" customWidth="1"/>
+    <col min="18" max="21" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="28.453125" customWidth="1"/>
+    <col min="24" max="28" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -21630,7 +21823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -21698,7 +21891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -21766,7 +21959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -21831,7 +22024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -21896,7 +22089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -21964,7 +22157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -22032,7 +22225,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -22100,7 +22293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -22168,7 +22361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -22236,7 +22429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -22301,7 +22494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -22363,7 +22556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -22425,7 +22618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -22487,7 +22680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -22549,7 +22742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -22611,7 +22804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -22673,7 +22866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -22735,7 +22928,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -22797,7 +22990,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -22859,7 +23052,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -22921,7 +23114,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -22980,7 +23173,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -23039,7 +23232,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -23098,7 +23291,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -23157,7 +23350,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -23216,7 +23409,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -23275,7 +23468,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -23331,7 +23524,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -23387,7 +23580,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -23440,7 +23633,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -23493,7 +23686,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -23546,7 +23739,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -23599,7 +23792,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -23652,7 +23845,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -23705,7 +23898,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -23752,7 +23945,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -23799,7 +23992,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -23846,7 +24039,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -23893,7 +24086,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -23940,7 +24133,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -23987,7 +24180,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -24031,7 +24224,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -24075,7 +24268,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -24119,7 +24312,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -24163,7 +24356,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -24207,7 +24400,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -24251,7 +24444,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -24292,7 +24485,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -24333,7 +24526,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -24374,7 +24567,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -24415,7 +24608,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -24453,7 +24646,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -24491,7 +24684,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -24526,7 +24719,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -24561,7 +24754,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -24596,7 +24789,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -24631,7 +24824,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -24666,7 +24859,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -24701,7 +24894,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -24733,7 +24926,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -24765,7 +24958,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -24797,7 +24990,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -24829,7 +25022,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -24861,7 +25054,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -24893,7 +25086,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>256</v>
       </c>
@@ -24922,7 +25115,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>257</v>
       </c>
@@ -24951,7 +25144,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>258</v>
       </c>
@@ -24980,7 +25173,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>259</v>
       </c>
@@ -25009,7 +25202,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -25038,7 +25231,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -25067,7 +25260,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -25093,7 +25286,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>263</v>
       </c>
@@ -25119,7 +25312,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -25145,7 +25338,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>265</v>
       </c>
@@ -25171,7 +25364,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>266</v>
       </c>
@@ -25194,7 +25387,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -25214,7 +25407,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -25231,7 +25424,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>269</v>
       </c>
@@ -25248,7 +25441,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>270</v>
       </c>
@@ -25265,7 +25458,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -25282,7 +25475,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -25299,7 +25492,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>273</v>
       </c>
@@ -25316,7 +25509,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>274</v>
       </c>
@@ -25330,7 +25523,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>275</v>
       </c>
@@ -25344,7 +25537,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>276</v>
       </c>
@@ -25358,7 +25551,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>277</v>
       </c>
@@ -25372,7 +25565,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -25386,7 +25579,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>279</v>
       </c>
@@ -25400,7 +25593,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>280</v>
       </c>
@@ -25414,7 +25607,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>281</v>
       </c>
@@ -25428,7 +25621,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -25442,7 +25635,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>283</v>
       </c>
@@ -25456,7 +25649,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>284</v>
       </c>
@@ -25470,7 +25663,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -25484,7 +25677,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -25498,7 +25691,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -25512,7 +25705,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -25526,7 +25719,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>289</v>
       </c>
@@ -25540,7 +25733,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -25554,7 +25747,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -25568,7 +25761,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>292</v>
       </c>
@@ -25582,7 +25775,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>293</v>
       </c>
@@ -25596,7 +25789,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>294</v>
       </c>
@@ -25610,7 +25803,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>295</v>
       </c>
@@ -25624,7 +25817,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>296</v>
       </c>
@@ -25638,7 +25831,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>297</v>
       </c>
@@ -25652,7 +25845,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>298</v>
       </c>
@@ -25666,7 +25859,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>299</v>
       </c>
@@ -25680,7 +25873,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>300</v>
       </c>
@@ -25694,7 +25887,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>301</v>
       </c>
@@ -25708,7 +25901,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>302</v>
       </c>
@@ -25722,7 +25915,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>303</v>
       </c>
@@ -25736,7 +25929,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>304</v>
       </c>
@@ -25747,7 +25940,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>305</v>
       </c>
@@ -25758,7 +25951,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>306</v>
       </c>
@@ -25769,7 +25962,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AA117" t="s">
         <v>838</v>
       </c>
@@ -25777,7 +25970,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AA118" t="s">
         <v>839</v>
       </c>
@@ -25785,7 +25978,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AA119" t="s">
         <v>840</v>
       </c>
@@ -25793,32 +25986,32 @@
         <v>942</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB120" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB121" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB122" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB123" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB124" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.35">
       <c r="AB125" t="s">
         <v>948</v>
       </c>
@@ -25829,16 +26022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DJ138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>949</v>
       </c>
@@ -26182,7 +26375,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -26526,7 +26719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -26870,7 +27063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -27214,7 +27407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -27558,7 +27751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -27902,7 +28095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -28246,7 +28439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -28590,7 +28783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -28934,7 +29127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -29278,7 +29471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -29622,7 +29815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -29966,7 +30159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -30310,7 +30503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -30654,7 +30847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>254</v>
       </c>
@@ -30998,7 +31191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>257</v>
       </c>
@@ -31339,7 +31532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:114" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>261</v>
       </c>
@@ -31677,7 +31870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:114" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>266</v>
       </c>
@@ -32012,7 +32205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:114" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>272</v>
       </c>
@@ -32344,7 +32537,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="20" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:114" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>279</v>
       </c>
@@ -32673,7 +32866,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="21" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:114" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>287</v>
       </c>
@@ -32993,7 +33186,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="22" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:114" x14ac:dyDescent="0.35">
       <c r="H22" t="s">
         <v>296</v>
       </c>
@@ -33304,7 +33497,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="23" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:114" x14ac:dyDescent="0.35">
       <c r="I23" t="s">
         <v>306</v>
       </c>
@@ -33606,7 +33799,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="24" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:114" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
         <v>537</v>
       </c>
@@ -33899,7 +34092,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="25" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:114" x14ac:dyDescent="0.35">
       <c r="K25" t="s">
         <v>1184</v>
       </c>
@@ -34183,7 +34376,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="26" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:114" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>1205</v>
       </c>
@@ -34455,7 +34648,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="27" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:114" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>1226</v>
       </c>
@@ -34718,7 +34911,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="28" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:114" x14ac:dyDescent="0.35">
       <c r="N28" t="s">
         <v>1248</v>
       </c>
@@ -34972,7 +35165,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="29" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:114" x14ac:dyDescent="0.35">
       <c r="O29" t="s">
         <v>607</v>
       </c>
@@ -35217,7 +35410,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="30" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:114" x14ac:dyDescent="0.35">
       <c r="P30" t="s">
         <v>755</v>
       </c>
@@ -35453,7 +35646,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="31" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:114" x14ac:dyDescent="0.35">
       <c r="Q31" t="s">
         <v>858</v>
       </c>
@@ -35674,7 +35867,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="32" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:114" x14ac:dyDescent="0.35">
       <c r="R32" t="s">
         <v>1349</v>
       </c>
@@ -35883,7 +36076,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="33" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="33" spans="19:114" x14ac:dyDescent="0.35">
       <c r="S33" t="s">
         <v>1379</v>
       </c>
@@ -36083,7 +36276,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="34" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="34" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V34" t="s">
         <v>1411</v>
       </c>
@@ -36274,7 +36467,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="35" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="35" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V35" t="s">
         <v>1445</v>
       </c>
@@ -36459,7 +36652,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="36" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="36" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V36" t="s">
         <v>1480</v>
       </c>
@@ -36638,7 +36831,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="37" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="37" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V37" t="s">
         <v>1516</v>
       </c>
@@ -36805,7 +36998,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="38" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="38" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W38" t="s">
         <v>1552</v>
       </c>
@@ -36963,7 +37156,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="39" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="39" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W39" t="s">
         <v>1589</v>
       </c>
@@ -37115,7 +37308,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="40" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="40" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W40" t="s">
         <v>1628</v>
       </c>
@@ -37267,7 +37460,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="41" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="41" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W41" t="s">
         <v>1667</v>
       </c>
@@ -37419,7 +37612,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="42" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="42" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W42" t="s">
         <v>1706</v>
       </c>
@@ -37571,7 +37764,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="43" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="43" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W43" t="s">
         <v>1745</v>
       </c>
@@ -37717,7 +37910,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="44" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="44" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X44" t="s">
         <v>1783</v>
       </c>
@@ -37860,7 +38053,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="45" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="45" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X45" t="s">
         <v>1820</v>
       </c>
@@ -38003,7 +38196,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="46" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="46" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X46" t="s">
         <v>1857</v>
       </c>
@@ -38146,7 +38339,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="47" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="47" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X47" t="s">
         <v>1894</v>
       </c>
@@ -38289,7 +38482,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="48" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="48" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X48" t="s">
         <v>1931</v>
       </c>
@@ -38432,7 +38625,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="49" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="49" spans="24:114" x14ac:dyDescent="0.35">
       <c r="X49" t="s">
         <v>1968</v>
       </c>
@@ -38569,7 +38762,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="50" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="50" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y50" t="s">
         <v>2004</v>
       </c>
@@ -38703,7 +38896,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="51" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="51" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y51" t="s">
         <v>2039</v>
       </c>
@@ -38837,7 +39030,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="52" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="52" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y52" t="s">
         <v>2074</v>
       </c>
@@ -38971,7 +39164,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="53" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="53" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y53" t="s">
         <v>2109</v>
       </c>
@@ -39105,7 +39298,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="54" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="54" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y54" t="s">
         <v>2144</v>
       </c>
@@ -39239,7 +39432,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="55" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="55" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y55" t="s">
         <v>2179</v>
       </c>
@@ -39367,7 +39560,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="56" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="56" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z56" t="s">
         <v>2213</v>
       </c>
@@ -39492,7 +39685,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="57" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="57" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z57" t="s">
         <v>2246</v>
       </c>
@@ -39617,7 +39810,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="58" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="58" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z58" t="s">
         <v>2279</v>
       </c>
@@ -39742,7 +39935,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="59" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="59" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z59" t="s">
         <v>2312</v>
       </c>
@@ -39867,7 +40060,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="60" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="60" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z60" t="s">
         <v>2345</v>
       </c>
@@ -39992,7 +40185,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="61" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="61" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z61" t="s">
         <v>2378</v>
       </c>
@@ -40111,7 +40304,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="62" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="62" spans="24:114" x14ac:dyDescent="0.35">
       <c r="AA62" t="s">
         <v>2410</v>
       </c>
@@ -40227,7 +40420,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="63" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="63" spans="24:114" x14ac:dyDescent="0.35">
       <c r="AA63" t="s">
         <v>2441</v>
       </c>
@@ -40343,7 +40536,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="64" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="64" spans="24:114" x14ac:dyDescent="0.35">
       <c r="AA64" t="s">
         <v>2472</v>
       </c>
@@ -40459,7 +40652,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="65" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="65" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AA65" t="s">
         <v>2503</v>
       </c>
@@ -40575,7 +40768,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="66" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="66" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AA66" t="s">
         <v>2534</v>
       </c>
@@ -40691,7 +40884,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="67" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="67" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AA67" t="s">
         <v>2565</v>
       </c>
@@ -40801,7 +40994,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="68" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="68" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB68" t="s">
         <v>2595</v>
       </c>
@@ -40908,7 +41101,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="69" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="69" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB69" t="s">
         <v>2624</v>
       </c>
@@ -41015,7 +41208,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="70" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="70" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB70" t="s">
         <v>2653</v>
       </c>
@@ -41122,7 +41315,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="71" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="71" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB71" t="s">
         <v>2682</v>
       </c>
@@ -41229,7 +41422,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="72" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="72" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB72" t="s">
         <v>2711</v>
       </c>
@@ -41336,7 +41529,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="73" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="73" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB73" t="s">
         <v>2740</v>
       </c>
@@ -41437,7 +41630,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="74" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="74" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC74" t="s">
         <v>2768</v>
       </c>
@@ -41535,7 +41728,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="75" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="75" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC75" t="s">
         <v>2795</v>
       </c>
@@ -41633,7 +41826,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="76" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="76" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC76" t="s">
         <v>2822</v>
       </c>
@@ -41731,7 +41924,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="77" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="77" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC77" t="s">
         <v>2849</v>
       </c>
@@ -41829,7 +42022,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="78" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="78" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC78" t="s">
         <v>2876</v>
       </c>
@@ -41927,7 +42120,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="79" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="79" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC79" t="s">
         <v>2903</v>
       </c>
@@ -42019,7 +42212,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="80" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="80" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AD80" t="s">
         <v>2929</v>
       </c>
@@ -42108,7 +42301,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="81" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="81" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD81" t="s">
         <v>2954</v>
       </c>
@@ -42197,7 +42390,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="82" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="82" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD82" t="s">
         <v>2979</v>
       </c>
@@ -42286,7 +42479,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="83" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="83" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD83" t="s">
         <v>3004</v>
       </c>
@@ -42375,7 +42568,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="84" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="84" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD84" t="s">
         <v>3029</v>
       </c>
@@ -42464,7 +42657,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="85" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="85" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD85" t="s">
         <v>3054</v>
       </c>
@@ -42547,7 +42740,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="86" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="86" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE86" t="s">
         <v>3078</v>
       </c>
@@ -42627,7 +42820,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="87" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="87" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE87" t="s">
         <v>3101</v>
       </c>
@@ -42707,7 +42900,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="88" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="88" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE88" t="s">
         <v>3124</v>
       </c>
@@ -42787,7 +42980,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="89" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="89" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE89" t="s">
         <v>3147</v>
       </c>
@@ -42867,7 +43060,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="90" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="90" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE90" t="s">
         <v>3170</v>
       </c>
@@ -42947,7 +43140,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="91" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="91" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE91" t="s">
         <v>3193</v>
       </c>
@@ -43021,7 +43214,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="92" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="92" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF92" t="s">
         <v>3214</v>
       </c>
@@ -43092,7 +43285,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="93" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="93" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF93" t="s">
         <v>3234</v>
       </c>
@@ -43163,7 +43356,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="94" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="94" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF94" t="s">
         <v>3254</v>
       </c>
@@ -43234,7 +43427,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="95" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="95" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF95" t="s">
         <v>3274</v>
       </c>
@@ -43305,7 +43498,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="96" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="96" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF96" t="s">
         <v>3294</v>
       </c>
@@ -43376,7 +43569,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="97" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="97" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AF97" t="s">
         <v>3314</v>
       </c>
@@ -43441,7 +43634,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="98" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="98" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG98" t="s">
         <v>3332</v>
       </c>
@@ -43503,7 +43696,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="99" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="99" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG99" t="s">
         <v>3349</v>
       </c>
@@ -43565,7 +43758,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="100" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="100" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG100" t="s">
         <v>3366</v>
       </c>
@@ -43627,7 +43820,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="101" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="101" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG101" t="s">
         <v>3383</v>
       </c>
@@ -43689,7 +43882,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="102" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="102" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG102" t="s">
         <v>3400</v>
       </c>
@@ -43751,7 +43944,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="103" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="103" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG103" t="s">
         <v>3417</v>
       </c>
@@ -43807,7 +44000,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="104" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="104" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH104" t="s">
         <v>3432</v>
       </c>
@@ -43860,7 +44053,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="105" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="105" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH105" t="s">
         <v>3446</v>
       </c>
@@ -43913,7 +44106,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="106" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="106" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH106" t="s">
         <v>3460</v>
       </c>
@@ -43966,7 +44159,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="107" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="107" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH107" t="s">
         <v>3474</v>
       </c>
@@ -44019,7 +44212,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="108" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="108" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH108" t="s">
         <v>3488</v>
       </c>
@@ -44072,7 +44265,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="109" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="109" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH109" t="s">
         <v>3502</v>
       </c>
@@ -44119,7 +44312,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="110" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="110" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AI110" t="s">
         <v>3514</v>
       </c>
@@ -44163,7 +44356,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="111" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="111" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AI111" t="s">
         <v>3525</v>
       </c>
@@ -44207,7 +44400,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="112" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="112" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AI112" t="s">
         <v>3536</v>
       </c>
@@ -44251,7 +44444,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="113" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="113" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AI113" t="s">
         <v>3547</v>
       </c>
@@ -44295,7 +44488,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="114" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="114" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AI114" t="s">
         <v>3558</v>
       </c>
@@ -44339,7 +44532,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="115" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="115" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AI115" t="s">
         <v>3569</v>
       </c>
@@ -44377,7 +44570,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="116" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="116" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ116" t="s">
         <v>3579</v>
       </c>
@@ -44412,7 +44605,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="117" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="117" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ117" t="s">
         <v>3588</v>
       </c>
@@ -44447,7 +44640,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="118" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="118" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ118" t="s">
         <v>3597</v>
       </c>
@@ -44482,7 +44675,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="119" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="119" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ119" t="s">
         <v>3606</v>
       </c>
@@ -44517,7 +44710,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="120" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="120" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ120" t="s">
         <v>3615</v>
       </c>
@@ -44552,7 +44745,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="121" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="121" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ121" t="s">
         <v>3624</v>
       </c>
@@ -44581,7 +44774,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="122" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="122" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK122" t="s">
         <v>3632</v>
       </c>
@@ -44607,7 +44800,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="123" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="123" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK123" t="s">
         <v>3639</v>
       </c>
@@ -44633,7 +44826,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="124" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="124" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK124" t="s">
         <v>3646</v>
       </c>
@@ -44659,7 +44852,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="125" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="125" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK125" t="s">
         <v>3653</v>
       </c>
@@ -44685,7 +44878,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="126" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="126" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK126" t="s">
         <v>3660</v>
       </c>
@@ -44711,7 +44904,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="127" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="127" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK127" t="s">
         <v>3667</v>
       </c>
@@ -44731,7 +44924,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="128" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="128" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AL128" t="s">
         <v>3673</v>
       </c>
@@ -44748,7 +44941,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="129" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="129" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL129" t="s">
         <v>3678</v>
       </c>
@@ -44765,7 +44958,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="130" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="130" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL130" t="s">
         <v>3683</v>
       </c>
@@ -44782,7 +44975,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="131" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="131" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL131" t="s">
         <v>3688</v>
       </c>
@@ -44799,7 +44992,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="132" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="132" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL132" t="s">
         <v>3693</v>
       </c>
@@ -44816,7 +45009,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="133" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="133" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL133" t="s">
         <v>3698</v>
       </c>
@@ -44827,7 +45020,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="134" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="134" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX134" t="s">
         <v>3701</v>
       </c>
@@ -44835,7 +45028,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="135" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="135" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX135" t="s">
         <v>3703</v>
       </c>
@@ -44843,7 +45036,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="136" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="136" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX136" t="s">
         <v>3705</v>
       </c>
@@ -44851,7 +45044,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="137" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="137" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX137" t="s">
         <v>3707</v>
       </c>
@@ -44859,7 +45052,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="138" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="138" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX138" t="s">
         <v>3709</v>
       </c>
@@ -44873,16 +45066,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DJ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>949</v>
       </c>
@@ -45226,7 +45419,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -45570,7 +45763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -45914,7 +46107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -46258,7 +46451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -46602,7 +46795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -46946,7 +47139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -47290,7 +47483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -47634,7 +47827,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3711</v>
       </c>
@@ -47978,7 +48171,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3712</v>
       </c>
@@ -48322,7 +48515,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3713</v>
       </c>
@@ -48666,7 +48859,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3714</v>
       </c>
@@ -49010,7 +49203,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3715</v>
       </c>
@@ -49354,7 +49547,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3716</v>
       </c>
@@ -49698,7 +49891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3736</v>
       </c>
@@ -50042,7 +50235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3756</v>
       </c>
@@ -50383,7 +50576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:114" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>3776</v>
       </c>
@@ -50721,7 +50914,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:114" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>3796</v>
       </c>
@@ -51056,7 +51249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:114" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>3816</v>
       </c>
@@ -51388,7 +51581,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="20" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:114" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>3835</v>
       </c>
@@ -51717,7 +51910,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="21" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:114" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>3854</v>
       </c>
@@ -52037,7 +52230,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="22" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:114" x14ac:dyDescent="0.35">
       <c r="H22" t="s">
         <v>3875</v>
       </c>
@@ -52348,7 +52541,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="23" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:114" x14ac:dyDescent="0.35">
       <c r="I23" t="s">
         <v>3898</v>
       </c>
@@ -52650,7 +52843,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="24" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:114" x14ac:dyDescent="0.35">
       <c r="J24" t="s">
         <v>3923</v>
       </c>
@@ -52943,7 +53136,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="25" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:114" x14ac:dyDescent="0.35">
       <c r="K25" t="s">
         <v>3950</v>
       </c>
@@ -53227,7 +53420,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="26" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:114" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>3979</v>
       </c>
@@ -53499,7 +53692,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="27" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:114" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>4009</v>
       </c>
@@ -53762,7 +53955,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="28" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:114" x14ac:dyDescent="0.35">
       <c r="N28" t="s">
         <v>4041</v>
       </c>
@@ -54016,7 +54209,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="29" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:114" x14ac:dyDescent="0.35">
       <c r="O29" t="s">
         <v>4075</v>
       </c>
@@ -54261,7 +54454,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="30" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:114" x14ac:dyDescent="0.35">
       <c r="P30" t="s">
         <v>4111</v>
       </c>
@@ -54497,7 +54690,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="31" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:114" x14ac:dyDescent="0.35">
       <c r="Q31" t="s">
         <v>4149</v>
       </c>
@@ -54718,7 +54911,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="32" spans="3:114" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:114" x14ac:dyDescent="0.35">
       <c r="R32" t="s">
         <v>4187</v>
       </c>
@@ -54927,7 +55120,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="33" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="33" spans="19:114" x14ac:dyDescent="0.35">
       <c r="S33" t="s">
         <v>4226</v>
       </c>
@@ -55127,7 +55320,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="34" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="34" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V34" t="s">
         <v>4267</v>
       </c>
@@ -55318,7 +55511,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="35" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="35" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V35" t="s">
         <v>4310</v>
       </c>
@@ -55503,7 +55696,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="36" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="36" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V36" t="s">
         <v>4355</v>
       </c>
@@ -55682,7 +55875,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="37" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="37" spans="19:114" x14ac:dyDescent="0.35">
       <c r="V37" t="s">
         <v>4402</v>
       </c>
@@ -55849,7 +56042,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="38" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="38" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W38" t="s">
         <v>4449</v>
       </c>
@@ -56007,7 +56200,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="39" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="39" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W39" t="s">
         <v>4497</v>
       </c>
@@ -56159,7 +56352,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="40" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="40" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W40" t="s">
         <v>4547</v>
       </c>
@@ -56311,7 +56504,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="41" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="41" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W41" t="s">
         <v>4597</v>
       </c>
@@ -56463,7 +56656,7 @@
         <v>4646</v>
       </c>
     </row>
-    <row r="42" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="42" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W42" t="s">
         <v>4647</v>
       </c>
@@ -56615,7 +56808,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="43" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="43" spans="19:114" x14ac:dyDescent="0.35">
       <c r="W43" t="s">
         <v>4697</v>
       </c>
@@ -56761,7 +56954,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="44" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="44" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X44" t="s">
         <v>4745</v>
       </c>
@@ -56904,7 +57097,7 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="45" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="45" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X45" t="s">
         <v>4792</v>
       </c>
@@ -57047,7 +57240,7 @@
         <v>4838</v>
       </c>
     </row>
-    <row r="46" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="46" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X46" t="s">
         <v>4839</v>
       </c>
@@ -57190,7 +57383,7 @@
         <v>4885</v>
       </c>
     </row>
-    <row r="47" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="47" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X47" t="s">
         <v>4886</v>
       </c>
@@ -57333,7 +57526,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="48" spans="19:114" x14ac:dyDescent="0.45">
+    <row r="48" spans="19:114" x14ac:dyDescent="0.35">
       <c r="X48" t="s">
         <v>4933</v>
       </c>
@@ -57476,7 +57669,7 @@
         <v>4979</v>
       </c>
     </row>
-    <row r="49" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="49" spans="24:114" x14ac:dyDescent="0.35">
       <c r="X49" t="s">
         <v>4980</v>
       </c>
@@ -57613,7 +57806,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="50" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="50" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y50" t="s">
         <v>5025</v>
       </c>
@@ -57747,7 +57940,7 @@
         <v>5068</v>
       </c>
     </row>
-    <row r="51" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="51" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y51" t="s">
         <v>5069</v>
       </c>
@@ -57881,7 +58074,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="52" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="52" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y52" t="s">
         <v>5113</v>
       </c>
@@ -58015,7 +58208,7 @@
         <v>5156</v>
       </c>
     </row>
-    <row r="53" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="53" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y53" t="s">
         <v>5157</v>
       </c>
@@ -58149,7 +58342,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="54" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="54" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y54" t="s">
         <v>5201</v>
       </c>
@@ -58283,7 +58476,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="55" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="55" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Y55" t="s">
         <v>5245</v>
       </c>
@@ -58411,7 +58604,7 @@
         <v>5286</v>
       </c>
     </row>
-    <row r="56" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="56" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z56" t="s">
         <v>5287</v>
       </c>
@@ -58536,7 +58729,7 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="57" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="57" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z57" t="s">
         <v>5328</v>
       </c>
@@ -58661,7 +58854,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="58" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="58" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z58" t="s">
         <v>5369</v>
       </c>
@@ -58786,7 +58979,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="59" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="59" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z59" t="s">
         <v>5410</v>
       </c>
@@ -58911,7 +59104,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="60" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="60" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z60" t="s">
         <v>5451</v>
       </c>
@@ -59036,7 +59229,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="61" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="61" spans="24:114" x14ac:dyDescent="0.35">
       <c r="Z61" t="s">
         <v>5492</v>
       </c>
@@ -59155,7 +59348,7 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="62" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="62" spans="24:114" x14ac:dyDescent="0.35">
       <c r="AA62" t="s">
         <v>5531</v>
       </c>
@@ -59271,7 +59464,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="63" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="63" spans="24:114" x14ac:dyDescent="0.35">
       <c r="AA63" t="s">
         <v>5569</v>
       </c>
@@ -59387,7 +59580,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="64" spans="24:114" x14ac:dyDescent="0.45">
+    <row r="64" spans="24:114" x14ac:dyDescent="0.35">
       <c r="AA64" t="s">
         <v>5607</v>
       </c>
@@ -59503,7 +59696,7 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="65" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="65" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AA65" t="s">
         <v>5645</v>
       </c>
@@ -59619,7 +59812,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="66" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="66" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AA66" t="s">
         <v>5683</v>
       </c>
@@ -59735,7 +59928,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="67" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="67" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AA67" t="s">
         <v>5721</v>
       </c>
@@ -59845,7 +60038,7 @@
         <v>5756</v>
       </c>
     </row>
-    <row r="68" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="68" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB68" t="s">
         <v>5757</v>
       </c>
@@ -59952,7 +60145,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="69" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="69" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB69" t="s">
         <v>5792</v>
       </c>
@@ -60059,7 +60252,7 @@
         <v>5826</v>
       </c>
     </row>
-    <row r="70" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="70" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB70" t="s">
         <v>5827</v>
       </c>
@@ -60166,7 +60359,7 @@
         <v>5861</v>
       </c>
     </row>
-    <row r="71" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="71" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB71" t="s">
         <v>5862</v>
       </c>
@@ -60273,7 +60466,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="72" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="72" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB72" t="s">
         <v>5897</v>
       </c>
@@ -60380,7 +60573,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="73" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="73" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AB73" t="s">
         <v>5932</v>
       </c>
@@ -60481,7 +60674,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="74" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="74" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC74" t="s">
         <v>5965</v>
       </c>
@@ -60579,7 +60772,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="75" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="75" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC75" t="s">
         <v>5997</v>
       </c>
@@ -60677,7 +60870,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="76" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="76" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC76" t="s">
         <v>6029</v>
       </c>
@@ -60775,7 +60968,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="77" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="77" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC77" t="s">
         <v>6061</v>
       </c>
@@ -60873,7 +61066,7 @@
         <v>6092</v>
       </c>
     </row>
-    <row r="78" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="78" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC78" t="s">
         <v>6093</v>
       </c>
@@ -60971,7 +61164,7 @@
         <v>6124</v>
       </c>
     </row>
-    <row r="79" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="79" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AC79" t="s">
         <v>6125</v>
       </c>
@@ -61063,7 +61256,7 @@
         <v>6154</v>
       </c>
     </row>
-    <row r="80" spans="27:114" x14ac:dyDescent="0.45">
+    <row r="80" spans="27:114" x14ac:dyDescent="0.35">
       <c r="AD80" t="s">
         <v>6155</v>
       </c>
@@ -61152,7 +61345,7 @@
         <v>6183</v>
       </c>
     </row>
-    <row r="81" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="81" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD81" t="s">
         <v>6184</v>
       </c>
@@ -61241,7 +61434,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="82" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="82" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD82" t="s">
         <v>6213</v>
       </c>
@@ -61330,7 +61523,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="83" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="83" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD83" t="s">
         <v>6242</v>
       </c>
@@ -61419,7 +61612,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="84" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="84" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD84" t="s">
         <v>6271</v>
       </c>
@@ -61508,7 +61701,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="85" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="85" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AD85" t="s">
         <v>6300</v>
       </c>
@@ -61591,7 +61784,7 @@
         <v>6326</v>
       </c>
     </row>
-    <row r="86" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="86" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE86" t="s">
         <v>6327</v>
       </c>
@@ -61671,7 +61864,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row r="87" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="87" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE87" t="s">
         <v>6353</v>
       </c>
@@ -61751,7 +61944,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="88" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="88" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE88" t="s">
         <v>6379</v>
       </c>
@@ -61831,7 +62024,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="89" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="89" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE89" t="s">
         <v>6405</v>
       </c>
@@ -61911,7 +62104,7 @@
         <v>6430</v>
       </c>
     </row>
-    <row r="90" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="90" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE90" t="s">
         <v>6431</v>
       </c>
@@ -61991,7 +62184,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="91" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="91" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AE91" t="s">
         <v>6457</v>
       </c>
@@ -62065,7 +62258,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="92" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="92" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF92" t="s">
         <v>6481</v>
       </c>
@@ -62136,7 +62329,7 @@
         <v>6503</v>
       </c>
     </row>
-    <row r="93" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="93" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF93" t="s">
         <v>6504</v>
       </c>
@@ -62207,7 +62400,7 @@
         <v>6526</v>
       </c>
     </row>
-    <row r="94" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="94" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF94" t="s">
         <v>6527</v>
       </c>
@@ -62278,7 +62471,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="95" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="95" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF95" t="s">
         <v>6550</v>
       </c>
@@ -62349,7 +62542,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="96" spans="30:114" x14ac:dyDescent="0.45">
+    <row r="96" spans="30:114" x14ac:dyDescent="0.35">
       <c r="AF96" t="s">
         <v>6573</v>
       </c>
@@ -62420,7 +62613,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="97" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="97" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AF97" t="s">
         <v>6596</v>
       </c>
@@ -62485,7 +62678,7 @@
         <v>6616</v>
       </c>
     </row>
-    <row r="98" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="98" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG98" t="s">
         <v>6617</v>
       </c>
@@ -62547,7 +62740,7 @@
         <v>6636</v>
       </c>
     </row>
-    <row r="99" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="99" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG99" t="s">
         <v>6637</v>
       </c>
@@ -62609,7 +62802,7 @@
         <v>6656</v>
       </c>
     </row>
-    <row r="100" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="100" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG100" t="s">
         <v>6657</v>
       </c>
@@ -62671,7 +62864,7 @@
         <v>6676</v>
       </c>
     </row>
-    <row r="101" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="101" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG101" t="s">
         <v>6677</v>
       </c>
@@ -62733,7 +62926,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="102" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="102" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG102" t="s">
         <v>6697</v>
       </c>
@@ -62795,7 +62988,7 @@
         <v>6716</v>
       </c>
     </row>
-    <row r="103" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="103" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AG103" t="s">
         <v>6717</v>
       </c>
@@ -62851,7 +63044,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="104" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="104" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH104" t="s">
         <v>6735</v>
       </c>
@@ -62904,7 +63097,7 @@
         <v>6751</v>
       </c>
     </row>
-    <row r="105" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="105" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH105" t="s">
         <v>6752</v>
       </c>
@@ -62957,7 +63150,7 @@
         <v>6768</v>
       </c>
     </row>
-    <row r="106" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="106" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH106" t="s">
         <v>6769</v>
       </c>
@@ -63010,7 +63203,7 @@
         <v>6785</v>
       </c>
     </row>
-    <row r="107" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="107" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH107" t="s">
         <v>6786</v>
       </c>
@@ -63063,7 +63256,7 @@
         <v>6802</v>
       </c>
     </row>
-    <row r="108" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="108" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH108" t="s">
         <v>6803</v>
       </c>
@@ -63116,7 +63309,7 @@
         <v>6819</v>
       </c>
     </row>
-    <row r="109" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="109" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AH109" t="s">
         <v>6820</v>
       </c>
@@ -63163,7 +63356,7 @@
         <v>6834</v>
       </c>
     </row>
-    <row r="110" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="110" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AI110" t="s">
         <v>6835</v>
       </c>
@@ -63207,7 +63400,7 @@
         <v>6848</v>
       </c>
     </row>
-    <row r="111" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="111" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AI111" t="s">
         <v>6849</v>
       </c>
@@ -63251,7 +63444,7 @@
         <v>6862</v>
       </c>
     </row>
-    <row r="112" spans="32:114" x14ac:dyDescent="0.45">
+    <row r="112" spans="32:114" x14ac:dyDescent="0.35">
       <c r="AI112" t="s">
         <v>6863</v>
       </c>
@@ -63295,7 +63488,7 @@
         <v>6876</v>
       </c>
     </row>
-    <row r="113" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="113" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AI113" t="s">
         <v>6877</v>
       </c>
@@ -63339,7 +63532,7 @@
         <v>6890</v>
       </c>
     </row>
-    <row r="114" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="114" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AI114" t="s">
         <v>6891</v>
       </c>
@@ -63383,7 +63576,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="115" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="115" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AI115" t="s">
         <v>6905</v>
       </c>
@@ -63421,7 +63614,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="116" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="116" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ116" t="s">
         <v>6917</v>
       </c>
@@ -63456,7 +63649,7 @@
         <v>6927</v>
       </c>
     </row>
-    <row r="117" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="117" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ117" t="s">
         <v>6928</v>
       </c>
@@ -63491,7 +63684,7 @@
         <v>6938</v>
       </c>
     </row>
-    <row r="118" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="118" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ118" t="s">
         <v>6939</v>
       </c>
@@ -63526,7 +63719,7 @@
         <v>6949</v>
       </c>
     </row>
-    <row r="119" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="119" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ119" t="s">
         <v>6950</v>
       </c>
@@ -63561,7 +63754,7 @@
         <v>6960</v>
       </c>
     </row>
-    <row r="120" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="120" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ120" t="s">
         <v>6961</v>
       </c>
@@ -63596,7 +63789,7 @@
         <v>6971</v>
       </c>
     </row>
-    <row r="121" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="121" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AJ121" t="s">
         <v>6972</v>
       </c>
@@ -63625,7 +63818,7 @@
         <v>6980</v>
       </c>
     </row>
-    <row r="122" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="122" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK122" t="s">
         <v>6981</v>
       </c>
@@ -63651,7 +63844,7 @@
         <v>6988</v>
       </c>
     </row>
-    <row r="123" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="123" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK123" t="s">
         <v>6989</v>
       </c>
@@ -63677,7 +63870,7 @@
         <v>6996</v>
       </c>
     </row>
-    <row r="124" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="124" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK124" t="s">
         <v>6997</v>
       </c>
@@ -63703,7 +63896,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="125" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="125" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK125" t="s">
         <v>7005</v>
       </c>
@@ -63729,7 +63922,7 @@
         <v>7012</v>
       </c>
     </row>
-    <row r="126" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="126" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK126" t="s">
         <v>7013</v>
       </c>
@@ -63755,7 +63948,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="127" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="127" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AK127" t="s">
         <v>7021</v>
       </c>
@@ -63775,7 +63968,7 @@
         <v>7026</v>
       </c>
     </row>
-    <row r="128" spans="35:114" x14ac:dyDescent="0.45">
+    <row r="128" spans="35:114" x14ac:dyDescent="0.35">
       <c r="AL128" t="s">
         <v>7027</v>
       </c>
@@ -63792,7 +63985,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="129" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="129" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL129" t="s">
         <v>7032</v>
       </c>
@@ -63809,7 +64002,7 @@
         <v>7036</v>
       </c>
     </row>
-    <row r="130" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="130" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL130" t="s">
         <v>7037</v>
       </c>
@@ -63826,7 +64019,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="131" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="131" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL131" t="s">
         <v>7042</v>
       </c>
@@ -63843,7 +64036,7 @@
         <v>7046</v>
       </c>
     </row>
-    <row r="132" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="132" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL132" t="s">
         <v>7047</v>
       </c>
@@ -63860,7 +64053,7 @@
         <v>7051</v>
       </c>
     </row>
-    <row r="133" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="133" spans="38:114" x14ac:dyDescent="0.35">
       <c r="AL133" t="s">
         <v>7052</v>
       </c>
@@ -63871,7 +64064,7 @@
         <v>7054</v>
       </c>
     </row>
-    <row r="134" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="134" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX134" t="s">
         <v>7055</v>
       </c>
@@ -63879,7 +64072,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="135" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="135" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX135" t="s">
         <v>7057</v>
       </c>
@@ -63887,7 +64080,7 @@
         <v>7058</v>
       </c>
     </row>
-    <row r="136" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="136" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX136" t="s">
         <v>7059</v>
       </c>
@@ -63895,7 +64088,7 @@
         <v>7060</v>
       </c>
     </row>
-    <row r="137" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="137" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX137" t="s">
         <v>7061</v>
       </c>
@@ -63903,12 +64096,586 @@
         <v>7062</v>
       </c>
     </row>
-    <row r="138" spans="38:114" x14ac:dyDescent="0.45">
+    <row r="138" spans="38:114" x14ac:dyDescent="0.35">
       <c r="BX138" t="s">
         <v>7063</v>
       </c>
       <c r="DJ138" t="s">
         <v>7064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA4B8C-CE05-4319-A4CE-B66CA4C50D28}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7065</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7066</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7067</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7068</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7069</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7070</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7071</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7072</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7073</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7075</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7076</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7077</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7075</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7076</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7077</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7075</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7076</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7078</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7079</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7080</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7078</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7079</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7080</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7078</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7079</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7081</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7082</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7083</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7081</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7082</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7083</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7081</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7082</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3714</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3711</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3711</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3711</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3711</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3711</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3713</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3713</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3713</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3713</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>3715</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3715</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3715</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3715</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3715</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>7084</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7085</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>7087</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7088</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7089</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>7090</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7091</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>7093</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7094</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>7096</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7097</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>7099</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>7102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7103</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>7105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>7108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>7111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>7114</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7116</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>7117</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7118</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>7120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7121</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>7123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>7126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7127</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7128</v>
       </c>
     </row>
   </sheetData>

--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="BFB9858DB2A94ED4886500BB2069F5AEF8034D62" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{D853E677-5BC9-41BD-A618-9A0EE00B261E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="BFB9858DB2A94ED4886500BB2069F5AEF8034D62" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{967D9710-F1BF-41C8-8D1C-C9CE5A9E4CF6}"/>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45071,7 +45071,7 @@
   <dimension ref="A1:DJ139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/vars/combination.xlsx
+++ b/data/vars/combination.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="BFB9858DB2A94ED4886500BB2069F5AEF8034D62" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{967D9710-F1BF-41C8-8D1C-C9CE5A9E4CF6}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="BFB9858DB2A94ED4886500BB2069F5AEF8034D62" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{21978FFA-2D02-4585-95E4-8703EBED5CAC}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21160" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45070,7 +45070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DJ139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -64458,8 +64458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA4B8C-CE05-4319-A4CE-B66CA4C50D28}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
